--- a/lab4/lab4.xlsx
+++ b/lab4/lab4.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
   <si>
     <t>R</t>
   </si>
@@ -72,11 +69,26 @@
   <si>
     <t>E0</t>
   </si>
+  <si>
+    <t>Теория</t>
+  </si>
+  <si>
+    <t>tau_b</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Const</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="180" formatCode="0.0"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -102,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +124,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -134,68 +164,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -210,24 +178,78 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -236,7 +258,31 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -277,7 +323,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.1382169548531709"/>
           <c:y val="4.920175397237022E-2"/>
-          <c:w val="0.79152217544978087"/>
+          <c:w val="0.82171880467437008"/>
           <c:h val="0.75751772046458277"/>
         </c:manualLayout>
       </c:layout>
@@ -387,6 +433,109 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$4:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$4:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>-4.9541850903711069</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-2.0059663671044996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9121445811902988</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4609146181423602</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2672133301629565</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0747631357705441</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10.628154358731468</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.556016405798539</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5D43-45BA-8FF1-7F098E3F0BE8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -426,13 +575,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -440,18 +603,37 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>t</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>имп</a:t>
+                  <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>имп, </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45904647786009889"/>
+              <c:y val="0.89444306623666603"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -464,13 +646,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -549,13 +745,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -563,14 +773,26 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>t</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="ru-RU"/>
-                  <a:t>расс</a:t>
+                  <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>расс, </a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1600">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
@@ -587,13 +809,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -974,13 +1210,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1003,10 +1253,20 @@
                   </a:rPr>
                   <a:t>ф</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -1015,8 +1275,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4119385020535101E-2"/>
-              <c:y val="0.3844234737833343"/>
+              <c:x val="1.1373784890993269E-3"/>
+              <c:y val="0.36915629821081525"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1031,13 +1291,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1251,6 +1525,97 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>the</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$22:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1515151515151517E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4848484848484847E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0283267457180498E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6464454430233895E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3181818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0869505869505868E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$22:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.1342332361735341</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8387622582220349</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.5396987784838547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3618998858038784</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.3570846316299221</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.3210115534289129</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7874-4A78-8BD4-25FC1EE12992}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1396,7 +1761,6 @@
         <c:axId val="334419336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1420,13 +1784,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1449,10 +1827,20 @@
                   </a:rPr>
                   <a:t>ф</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -1461,7 +1849,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4119385020535101E-2"/>
+              <c:x val="0"/>
               <c:y val="0.3844234737833343"/>
             </c:manualLayout>
           </c:layout>
@@ -1477,13 +1865,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1596,9 +1998,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22708025639835963"/>
+          <c:x val="0.20492643668996283"/>
           <c:y val="4.920175397237022E-2"/>
-          <c:w val="0.68829622836211268"/>
+          <c:w val="0.7099330486820481"/>
           <c:h val="0.7575175812947047"/>
         </c:manualLayout>
       </c:layout>
@@ -1866,13 +2268,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1895,10 +2311,20 @@
                   </a:rPr>
                   <a:t>сп</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -1907,7 +2333,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4119385020535101E-2"/>
+              <c:x val="1.1373784890993269E-3"/>
               <c:y val="0.3844234737833343"/>
             </c:manualLayout>
           </c:layout>
@@ -1923,13 +2349,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2139,6 +2579,97 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6BFD-48F9-9C32-A055575446E5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$22:$C$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1515151515151517E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4848484848484847E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0283267457180498E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6464454430233895E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3181818181818182E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0869505869505868E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$22:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>9.5449477515173662</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4417224761610079</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7566473915017715</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.1409886144360035</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5557309971960596</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2996124533725202</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9D4F-46EE-82B1-287D4502F2BE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2310,13 +2841,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2339,10 +2884,20 @@
                   </a:rPr>
                   <a:t>расс</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -2351,7 +2906,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4119385020535101E-2"/>
+              <c:x val="1.1220070997907451E-3"/>
               <c:y val="0.3844234737833343"/>
             </c:manualLayout>
           </c:layout>
@@ -2367,13 +2922,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2424,7 +2993,6 @@
         <c:crossAx val="334418352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2487,9 +3055,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22708025639835963"/>
+          <c:x val="0.21323495588654701"/>
           <c:y val="4.920175397237022E-2"/>
-          <c:w val="0.68829622836211268"/>
+          <c:w val="0.67531421869628072"/>
           <c:h val="0.7575175812947047"/>
         </c:manualLayout>
       </c:layout>
@@ -2584,6 +3152,97 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2D8-4C0F-A931-F49BD65369A8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$37:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1666666666666665E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6595744680851064E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0833333333333333E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6233766233766234E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.388888888888889E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1682242990654205E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$37:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>24.295753063962685</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.437445122970246</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.913354121423854</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.311014316483025</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.520251807363881</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>26.72137870128552</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6FDA-417E-9219-07A47E53B426}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2756,13 +3415,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2785,10 +3458,20 @@
                   </a:rPr>
                   <a:t>сп</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -2797,8 +3480,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4119385020535101E-2"/>
-              <c:y val="0.3844234737833343"/>
+              <c:x val="1.1373784890993269E-3"/>
+              <c:y val="0.36915629821081525"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2813,13 +3496,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3033,6 +3730,97 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$37:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1666666666666665E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.6595744680851064E-5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0833333333333333E-5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6233766233766234E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.388888888888889E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.1682242990654205E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$37:$I$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6.1478728451718911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2149968703414338</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.2410595110128293</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2620236552125412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.2727667643860157</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.2829110380208641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-20CA-4E9A-86D4-1D4EA2AAD672}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3178,7 +3966,6 @@
         <c:axId val="334419336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3202,13 +3989,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3231,10 +4032,20 @@
                   </a:rPr>
                   <a:t>расс</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -3243,7 +4054,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4119385020535101E-2"/>
+              <c:x val="1.1220070997907451E-3"/>
               <c:y val="0.3844234737833343"/>
             </c:manualLayout>
           </c:layout>
@@ -3259,13 +4070,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3316,7 +4141,6 @@
         <c:crossAx val="334418352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.5"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3470,6 +4294,97 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-911D-406C-933C-3E12833F12F5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$52:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6764705882352942E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1551724137931036E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8796992481203006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.488095238095238E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$52:$G$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.6916429928769308</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6822081048434718</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7210976292215392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0046318418882452</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.0540318653035912</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6046-44E1-8417-063125F14CAD}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3642,13 +4557,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3671,10 +4600,20 @@
                   </a:rPr>
                   <a:t>ф</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -3683,7 +4622,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4119385020535101E-2"/>
+              <c:x val="1.1373784890993269E-3"/>
               <c:y val="0.3844234737833343"/>
             </c:manualLayout>
           </c:layout>
@@ -3699,13 +4638,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3906,6 +4859,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8830-46D9-A067-8521698A41DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$52:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6764705882352942E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1551724137931036E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8796992481203006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.488095238095238E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$52:$H$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>27.046124158151166</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.684814957935863</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.50908078609806</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>26.325799174194675</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25.959103723739688</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-821E-446B-B703-8A7F4C236624}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4079,13 +5117,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4108,10 +5160,20 @@
                   </a:rPr>
                   <a:t>сп</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -4120,7 +5182,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4119385020535101E-2"/>
+              <c:x val="1.1373784890993269E-3"/>
               <c:y val="0.3844234737833343"/>
             </c:manualLayout>
           </c:layout>
@@ -4136,13 +5198,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4255,9 +5331,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22708025639835963"/>
+          <c:x val="0.20108557342443117"/>
           <c:y val="4.920175397237022E-2"/>
-          <c:w val="0.68829622836211268"/>
+          <c:w val="0.7142910750458662"/>
           <c:h val="0.7575175812947047"/>
         </c:manualLayout>
       </c:layout>
@@ -4343,6 +5419,91 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C254-42C2-A68D-6C147826088D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$52:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>3.6764705882352942E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5000000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1551724137931036E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8796992481203006E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.488095238095238E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$52:$I$58</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-1.0210563464969367</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6014488080201907</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3753853227289419</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0068948471104155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.785858776738964</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F247-4FDF-B255-6AB4720E6073}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4515,13 +5676,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -4544,10 +5719,20 @@
                   </a:rPr>
                   <a:t>расс</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
-                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
-                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -4556,7 +5741,7 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4119385020535101E-2"/>
+              <c:x val="1.1220070997907451E-3"/>
               <c:y val="0.3844234737833343"/>
             </c:manualLayout>
           </c:layout>
@@ -4572,13 +5757,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -4629,7 +5828,6 @@
         <c:crossAx val="334418352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10236,15 +11434,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>331898</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>180974</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>476249</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>14096</xdr:rowOff>
+      <xdr:colOff>537883</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10267,14 +11465,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>465249</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>374480</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -10299,14 +11497,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>541448</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>450679</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -10331,14 +11529,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68662</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>133349</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>579546</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -10363,14 +11561,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522397</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590548</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431628</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -10395,14 +11593,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>49611</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114298</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>560495</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -10427,14 +11625,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446198</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355429</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -10459,14 +11657,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>522397</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>590548</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431628</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -10491,14 +11689,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>49611</xdr:colOff>
       <xdr:row>49</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>114298</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>560495</xdr:colOff>
       <xdr:row>62</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
@@ -10523,14 +11721,14 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>446198</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>355429</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
@@ -10554,283 +11752,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet2"/>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2">
-            <v>16</v>
-          </cell>
-          <cell r="D2">
-            <v>-11.920440726612904</v>
-          </cell>
-          <cell r="G2">
-            <v>-12.755454639726551</v>
-          </cell>
-          <cell r="H2">
-            <v>-10</v>
-          </cell>
-          <cell r="J2">
-            <v>-24.187843558078079</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>32</v>
-          </cell>
-          <cell r="D3">
-            <v>-1.3100309751286456</v>
-          </cell>
-          <cell r="G3">
-            <v>-6.735083088166661</v>
-          </cell>
-          <cell r="H3">
-            <v>1.4</v>
-          </cell>
-          <cell r="J3">
-            <v>-15.457973683822624</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>64</v>
-          </cell>
-          <cell r="D4">
-            <v>7.9065278613870191</v>
-          </cell>
-          <cell r="G4">
-            <v>-0.71539650170726077</v>
-          </cell>
-          <cell r="H4">
-            <v>10.532400000000001</v>
-          </cell>
-          <cell r="J4">
-            <v>-6.7281038095671679</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>128</v>
-          </cell>
-          <cell r="D5">
-            <v>15.490339314570992</v>
-          </cell>
-          <cell r="G5">
-            <v>5.301552023818445</v>
-          </cell>
-          <cell r="H5">
-            <v>18.005043000000001</v>
-          </cell>
-          <cell r="J5">
-            <v>2.001766064688288</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>256</v>
-          </cell>
-          <cell r="D6">
-            <v>21.510939227850617</v>
-          </cell>
-          <cell r="G6">
-            <v>11.30757700838841</v>
-          </cell>
-          <cell r="H6">
-            <v>23.472300000000001</v>
-          </cell>
-          <cell r="I6">
-            <v>30.881360887005513</v>
-          </cell>
-          <cell r="J6">
-            <v>10.731635938943745</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>512</v>
-          </cell>
-          <cell r="D7">
-            <v>26.340362020962228</v>
-          </cell>
-          <cell r="G7">
-            <v>17.27036147191259</v>
-          </cell>
-          <cell r="H7">
-            <v>26.9438</v>
-          </cell>
-          <cell r="I7">
-            <v>30.881360887005513</v>
-          </cell>
-          <cell r="J7">
-            <v>19.461505813199199</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>1024</v>
-          </cell>
-          <cell r="D8">
-            <v>28.912084065471952</v>
-          </cell>
-          <cell r="G8">
-            <v>23.067102009852327</v>
-          </cell>
-          <cell r="H8">
-            <v>29</v>
-          </cell>
-          <cell r="I8">
-            <v>30.881360887005513</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2048</v>
-          </cell>
-          <cell r="D9">
-            <v>29.869161019903771</v>
-          </cell>
-          <cell r="G9">
-            <v>28.292422428299776</v>
-          </cell>
-          <cell r="H9">
-            <v>30</v>
-          </cell>
-          <cell r="I9">
-            <v>30.881360887005513</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>4096</v>
-          </cell>
-          <cell r="D10">
-            <v>30.089417249888378</v>
-          </cell>
-          <cell r="G10">
-            <v>32.087609069020353</v>
-          </cell>
-          <cell r="H10">
-            <v>30.2</v>
-          </cell>
-          <cell r="I10">
-            <v>30.881360887005513</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>8192</v>
-          </cell>
-          <cell r="D11">
-            <v>30.116560677096725</v>
-          </cell>
-          <cell r="G11">
-            <v>33.952092266378365</v>
-          </cell>
-          <cell r="H11">
-            <v>30.3</v>
-          </cell>
-          <cell r="I11">
-            <v>30.881360887005513</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>16384</v>
-          </cell>
-          <cell r="D12">
-            <v>30.07581366114362</v>
-          </cell>
-          <cell r="G12">
-            <v>34.57716657983665</v>
-          </cell>
-          <cell r="H12">
-            <v>30.4</v>
-          </cell>
-          <cell r="I12">
-            <v>30.881360887005513</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>32768</v>
-          </cell>
-          <cell r="D13">
-            <v>29.897000433601878</v>
-          </cell>
-          <cell r="G13">
-            <v>34.748579127245179</v>
-          </cell>
-          <cell r="H13">
-            <v>30.5</v>
-          </cell>
-          <cell r="I13">
-            <v>30.881360887005513</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>65536</v>
-          </cell>
-          <cell r="D14">
-            <v>29.714428529631604</v>
-          </cell>
-          <cell r="G14">
-            <v>34.792510640027245</v>
-          </cell>
-          <cell r="H14">
-            <v>30.6</v>
-          </cell>
-          <cell r="I14">
-            <v>30.881360887005513</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>131072</v>
-          </cell>
-          <cell r="D15">
-            <v>29.352162111672662</v>
-          </cell>
-          <cell r="G15">
-            <v>34.803563307663417</v>
-          </cell>
-          <cell r="H15">
-            <v>30.7</v>
-          </cell>
-          <cell r="I15">
-            <v>30.881360887005513</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>200000</v>
-          </cell>
-          <cell r="D16">
-            <v>28.896503990194951</v>
-          </cell>
-          <cell r="G16">
-            <v>34.805668355613662</v>
-          </cell>
-          <cell r="H16">
-            <v>30.8</v>
-          </cell>
-          <cell r="I16">
-            <v>30.881360887005513</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11120,617 +12041,969 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J56"/>
+  <dimension ref="A1:L58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W11" sqref="W11"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="I2" s="1" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="14">
         <v>7</v>
       </c>
+      <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="16">
         <v>5</v>
       </c>
+      <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="1">
         <v>2.9</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>25</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="1">
         <v>0.2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="F4" s="23">
+        <f>$J$9*LN(($J$14*(1-EXP(-B4*0.000001/$J$9))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
+        <v>-4.9541850903711069</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4">
+      <c r="J4" s="16">
         <v>1000</v>
       </c>
+      <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>21</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="1">
         <v>1.3</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="F5" s="23">
+        <f t="shared" ref="F5:F11" si="0">$J$9*LN(($J$14*(1-EXP(-B5*0.000001/$J$9))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
+        <v>-2.0059663671044996</v>
+      </c>
+      <c r="H5" s="3"/>
+      <c r="I5" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="16">
         <v>1200</v>
       </c>
+      <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="1">
         <v>6</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="1">
         <v>3.1</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="1">
         <v>23</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="1">
         <v>2.1</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="F6" s="23">
+        <f t="shared" si="0"/>
+        <v>1.9121445811902988</v>
+      </c>
+      <c r="H6" s="3"/>
+      <c r="I6" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="16">
         <v>330000</v>
       </c>
+      <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="1">
         <v>8</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="1">
         <v>3.2</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="1">
         <v>25</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="F7" s="23">
+        <f t="shared" si="0"/>
+        <v>4.4609146181423602</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="16">
         <v>1250</v>
       </c>
+      <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="1">
         <v>10</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="1">
         <v>3.2</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="1">
         <v>25</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="1">
         <v>2.6</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="F8" s="23">
+        <f t="shared" si="0"/>
+        <v>6.2672133301629565</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="10" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="8">
         <v>25</v>
       </c>
+      <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="1">
         <v>15</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="1">
         <v>3.3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="1">
         <v>26</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="1">
         <v>2.9</v>
       </c>
+      <c r="F9" s="23">
+        <f t="shared" si="0"/>
+        <v>9.0747631357705441</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="17">
+        <v>1.2099999999999999E-5</v>
+      </c>
+      <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="1">
         <v>20</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="1">
         <v>3.3</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>26</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="1">
         <v>2.9</v>
       </c>
+      <c r="F10" s="23">
+        <f t="shared" si="0"/>
+        <v>10.628154358731468</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="17">
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="1">
         <v>25</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="1">
         <v>3.3</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="1">
         <v>27</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="1">
         <v>3</v>
       </c>
+      <c r="F11" s="23">
+        <f t="shared" si="0"/>
+        <v>11.556016405798539</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="8">
+        <v>19</v>
+      </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F12" s="21"/>
+      <c r="I12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="17">
+        <v>1.5099999999999999E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I13" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="J13" s="17">
+        <v>1.0000000000000001E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I14" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="J14" s="24">
+        <v>3.16E-3</v>
+      </c>
+      <c r="L14" s="11"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="5" t="s">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="5">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
         <v>680</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="2">
         <f>$J$2/($J$4+B22)-$J$3/$J$6</f>
         <v>4.1515151515151517E-3</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="1">
         <v>1.9</v>
       </c>
-      <c r="E22" s="5">
+      <c r="E22" s="1">
         <v>20</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F22" s="1">
         <v>3.8</v>
       </c>
+      <c r="G22" s="19">
+        <f>$J$9*LN(C22/(C22-0.9*$J$10/$J$11))*1000000</f>
+        <v>3.1342332361735341</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="19">
+        <f>$J$9*LN((C22*(1-EXP(-$J$13/$J$9))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
+        <v>9.5449477515173662</v>
+      </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="5">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
         <v>1000</v>
       </c>
-      <c r="C23" s="6">
-        <f t="shared" ref="C23:C27" si="0">$J$2/($J$4+B23)-$J$3/$J$6</f>
+      <c r="C23" s="2">
+        <f t="shared" ref="C23:C27" si="1">$J$2/($J$4+B23)-$J$3/$J$6</f>
         <v>3.4848484848484847E-3</v>
       </c>
-      <c r="D23" s="5">
+      <c r="D23" s="1">
         <v>3</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E23" s="1">
         <v>23</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F23" s="1">
         <v>2.8</v>
       </c>
+      <c r="G23" s="19">
+        <f t="shared" ref="G23:G27" si="2">$J$9*LN(C23/(C23-0.9*$J$10/$J$11))*1000000</f>
+        <v>3.8387622582220349</v>
+      </c>
+      <c r="H23" s="20"/>
+      <c r="I23" s="19">
+        <f t="shared" ref="I23:I27" si="3">$J$9*LN((C23*(1-EXP(-$J$13/$J$9))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
+        <v>7.4417224761610079</v>
+      </c>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="1">
         <v>1300</v>
       </c>
-      <c r="C24" s="6">
-        <f t="shared" si="0"/>
+      <c r="C24" s="2">
+        <f t="shared" si="1"/>
         <v>3.0283267457180498E-3</v>
       </c>
-      <c r="D24" s="5">
+      <c r="D24" s="1">
         <v>3.2</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E24" s="1">
         <v>25</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="1">
         <v>2.6</v>
       </c>
+      <c r="G24" s="19">
+        <f t="shared" si="2"/>
+        <v>4.5396987784838547</v>
+      </c>
+      <c r="H24" s="20"/>
+      <c r="I24" s="19">
+        <f t="shared" si="3"/>
+        <v>5.7566473915017715</v>
+      </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="5">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="1">
         <v>1630</v>
       </c>
-      <c r="C25" s="6">
-        <f t="shared" si="0"/>
+      <c r="C25" s="2">
+        <f t="shared" si="1"/>
         <v>2.6464454430233895E-3</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="1">
         <v>26</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F25" s="1">
         <v>1.5</v>
       </c>
+      <c r="G25" s="19">
+        <f t="shared" si="2"/>
+        <v>5.3618998858038784</v>
+      </c>
+      <c r="H25" s="20"/>
+      <c r="I25" s="19">
+        <f t="shared" si="3"/>
+        <v>4.1409886144360035</v>
+      </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="5">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1">
         <v>2000</v>
       </c>
-      <c r="C26" s="6">
-        <f t="shared" si="0"/>
+      <c r="C26" s="2">
+        <f t="shared" si="1"/>
         <v>2.3181818181818182E-3</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="1">
         <v>6.1</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="1">
         <v>26</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F26" s="1">
         <v>1.1000000000000001</v>
       </c>
+      <c r="G26" s="19">
+        <f t="shared" si="2"/>
+        <v>6.3570846316299221</v>
+      </c>
+      <c r="H26" s="20"/>
+      <c r="I26" s="19">
+        <f t="shared" si="3"/>
+        <v>2.5557309971960596</v>
+      </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="5">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1">
         <v>2330</v>
       </c>
-      <c r="C27" s="6">
-        <f t="shared" si="0"/>
+      <c r="C27" s="2">
+        <f t="shared" si="1"/>
         <v>2.0869505869505868E-3</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="1">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="1">
         <v>27</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F27" s="1">
         <v>0.3</v>
       </c>
+      <c r="G27" s="19">
+        <f t="shared" si="2"/>
+        <v>7.3210115534289129</v>
+      </c>
+      <c r="H27" s="20"/>
+      <c r="I27" s="19">
+        <f t="shared" si="3"/>
+        <v>1.2996124533725202</v>
+      </c>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G28" s="11"/>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="5">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
         <v>120000</v>
       </c>
-      <c r="C37" s="5">
+      <c r="C37" s="1">
         <f>$J$3/B37</f>
         <v>4.1666666666666665E-5</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="1">
         <v>3.5</v>
       </c>
-      <c r="E37" s="5">
+      <c r="E37" s="1">
         <v>22</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F37" s="1">
         <v>1.7</v>
       </c>
+      <c r="G37" s="20"/>
+      <c r="H37" s="19">
+        <f>$J$9*LN((C37+$J$10/$J$11)/(C37+0.1*$J$10/$J$11))*1000000</f>
+        <v>24.295753063962685</v>
+      </c>
+      <c r="I37" s="19">
+        <f>$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+C37)/($J$10/$J$11+C37))*1000000</f>
+        <v>6.1478728451718911</v>
+      </c>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="5">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
         <v>188000</v>
       </c>
-      <c r="C38" s="5">
-        <f t="shared" ref="C38:C42" si="1">$J$3/B38</f>
+      <c r="C38" s="1">
+        <f t="shared" ref="C38:C42" si="4">$J$3/B38</f>
         <v>2.6595744680851064E-5</v>
       </c>
-      <c r="D38" s="5">
+      <c r="D38" s="1">
         <v>3.4</v>
       </c>
-      <c r="E38" s="5">
+      <c r="E38" s="1">
         <v>23</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F38" s="1">
         <v>2.4</v>
       </c>
+      <c r="G38" s="20"/>
+      <c r="H38" s="19">
+        <f t="shared" ref="H38:H42" si="5">$J$9*LN((C38+$J$10/$J$11)/(C38+0.1*$J$10/$J$11))*1000000</f>
+        <v>25.437445122970246</v>
+      </c>
+      <c r="I38" s="19">
+        <f t="shared" ref="I38:I42" si="6">$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+C38)/($J$10/$J$11+C38))*1000000</f>
+        <v>6.2149968703414338</v>
+      </c>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="5">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
         <v>240000</v>
       </c>
-      <c r="C39" s="5">
-        <f t="shared" si="1"/>
+      <c r="C39" s="1">
+        <f t="shared" si="4"/>
         <v>2.0833333333333333E-5</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="1">
         <v>3.2</v>
       </c>
-      <c r="E39" s="5">
+      <c r="E39" s="1">
         <v>25</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F39" s="1">
         <v>2.6</v>
       </c>
+      <c r="G39" s="20"/>
+      <c r="H39" s="19">
+        <f t="shared" si="5"/>
+        <v>25.913354121423854</v>
+      </c>
+      <c r="I39" s="19">
+        <f t="shared" si="6"/>
+        <v>6.2410595110128293</v>
+      </c>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="5">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
         <v>308000</v>
       </c>
-      <c r="C40" s="5">
-        <f t="shared" si="1"/>
+      <c r="C40" s="1">
+        <f t="shared" si="4"/>
         <v>1.6233766233766234E-5</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="1">
         <v>3.2</v>
       </c>
-      <c r="E40" s="5">
+      <c r="E40" s="1">
         <v>27</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F40" s="1">
         <v>2.6</v>
       </c>
+      <c r="G40" s="20"/>
+      <c r="H40" s="19">
+        <f t="shared" si="5"/>
+        <v>26.311014316483025</v>
+      </c>
+      <c r="I40" s="19">
+        <f t="shared" si="6"/>
+        <v>6.2620236552125412</v>
+      </c>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="5">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
         <v>360000</v>
       </c>
-      <c r="C41" s="5">
-        <f t="shared" si="1"/>
+      <c r="C41" s="1">
+        <f t="shared" si="4"/>
         <v>1.388888888888889E-5</v>
       </c>
-      <c r="D41" s="5">
+      <c r="D41" s="1">
         <v>3.5</v>
       </c>
-      <c r="E41" s="5">
+      <c r="E41" s="1">
         <v>25</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="1">
         <v>2.4</v>
       </c>
+      <c r="G41" s="20"/>
+      <c r="H41" s="19">
+        <f t="shared" si="5"/>
+        <v>26.520251807363881</v>
+      </c>
+      <c r="I41" s="19">
+        <f t="shared" si="6"/>
+        <v>6.2727667643860157</v>
+      </c>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="5">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
         <v>428000</v>
       </c>
-      <c r="C42" s="5">
-        <f t="shared" si="1"/>
+      <c r="C42" s="1">
+        <f t="shared" si="4"/>
         <v>1.1682242990654205E-5</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="1">
         <v>3.3</v>
       </c>
-      <c r="E42" s="5">
+      <c r="E42" s="1">
         <v>26</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F42" s="1">
         <v>2.2999999999999998</v>
       </c>
+      <c r="G42" s="20"/>
+      <c r="H42" s="19">
+        <f t="shared" si="5"/>
+        <v>26.72137870128552</v>
+      </c>
+      <c r="I42" s="19">
+        <f t="shared" si="6"/>
+        <v>6.2829110380208641</v>
+      </c>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="13"/>
-      <c r="E43" s="13"/>
-      <c r="F43" s="13"/>
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="13"/>
-      <c r="E45" s="13"/>
-      <c r="F45" s="13"/>
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
-      <c r="F47" s="13"/>
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-      <c r="F48" s="13"/>
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
     </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="9" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="9"/>
-      <c r="D50" s="9"/>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="22" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E51" s="5" t="s">
+      <c r="E51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" s="1">
         <v>680</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="1">
         <f>$J$8/B52</f>
         <v>3.6764705882352942E-2</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="1">
         <v>10</v>
       </c>
-      <c r="E52">
+      <c r="E52" s="1">
         <v>29</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="1">
         <v>0</v>
       </c>
+      <c r="G52" s="19">
+        <f>$J$9*LN($J$14/($J$14-0.9*C52/$J$11))*1000000</f>
+        <v>9.6916429928769308</v>
+      </c>
+      <c r="H52" s="19">
+        <f>$J$9*LN(($J$12+C52/$J$11)/($J$12+0.1*C52/$J$11))*1000000</f>
+        <v>27.046124158151166</v>
+      </c>
+      <c r="I52" s="19">
+        <f>$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C52/$J$11+$J$12))*1000000</f>
+        <v>-1.0210563464969367</v>
+      </c>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" s="1">
         <v>1000</v>
       </c>
-      <c r="C53">
-        <f t="shared" ref="C53:C56" si="2">$J$8/B53</f>
+      <c r="C53" s="1">
+        <f t="shared" ref="C53:C56" si="7">$J$8/B53</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="1">
         <v>3.9</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="1">
         <v>26</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="1">
         <v>2</v>
       </c>
+      <c r="G53" s="19">
+        <f t="shared" ref="G53:G58" si="8">$J$9*LN($J$14/($J$14-0.9*C53/$J$11))*1000000</f>
+        <v>5.6822081048434718</v>
+      </c>
+      <c r="H53" s="19">
+        <f t="shared" ref="H53:H58" si="9">$J$9*LN(($J$12+C53/$J$11)/($J$12+0.1*C53/$J$11))*1000000</f>
+        <v>26.684814957935863</v>
+      </c>
+      <c r="I53" s="19">
+        <f t="shared" ref="I53:I58" si="10">$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C53/$J$11+$J$12))*1000000</f>
+        <v>3.6014488080201907</v>
+      </c>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B54" s="1">
         <v>1160</v>
       </c>
-      <c r="C54">
-        <f t="shared" si="2"/>
+      <c r="C54" s="1">
+        <f t="shared" si="7"/>
         <v>2.1551724137931036E-2</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="1">
         <v>3.2</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="1">
         <v>25</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="1">
         <v>2.6</v>
       </c>
+      <c r="G54" s="19">
+        <f t="shared" si="8"/>
+        <v>4.7210976292215392</v>
+      </c>
+      <c r="H54" s="19">
+        <f t="shared" si="9"/>
+        <v>26.50908078609806</v>
+      </c>
+      <c r="I54" s="19">
+        <f t="shared" si="10"/>
+        <v>5.3753853227289419</v>
+      </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B55" s="1">
         <v>1330</v>
       </c>
-      <c r="C55">
-        <f t="shared" si="2"/>
+      <c r="C55" s="1">
+        <f t="shared" si="7"/>
         <v>1.8796992481203006E-2</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="1">
         <v>2.9</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="1">
         <v>24</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="1">
         <v>3.6</v>
       </c>
+      <c r="G55" s="19">
+        <f t="shared" si="8"/>
+        <v>4.0046318418882452</v>
+      </c>
+      <c r="H55" s="19">
+        <f t="shared" si="9"/>
+        <v>26.325799174194675</v>
+      </c>
+      <c r="I55" s="19">
+        <f t="shared" si="10"/>
+        <v>7.0068948471104155</v>
+      </c>
     </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B56" s="1">
         <v>1680</v>
       </c>
-      <c r="C56">
-        <f t="shared" si="2"/>
+      <c r="C56" s="1">
+        <f t="shared" si="7"/>
         <v>1.488095238095238E-2</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="1">
         <v>2.4</v>
       </c>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="G56" s="19">
+        <f t="shared" si="8"/>
+        <v>3.0540318653035912</v>
+      </c>
+      <c r="H56" s="19">
+        <f t="shared" si="9"/>
+        <v>25.959103723739688</v>
+      </c>
+      <c r="I56" s="19">
+        <f t="shared" si="10"/>
+        <v>9.785858776738964</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="G57" s="19">
+        <f>$J$9*LN($J$14/($J$14-0.9*C57/$J$11))*1000000</f>
+        <v>0</v>
+      </c>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="G58" s="19">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/lab4/lab4.xlsx
+++ b/lab4/lab4.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
   <si>
     <t>R</t>
   </si>
@@ -81,20 +81,34 @@
   <si>
     <t>Const</t>
   </si>
+  <si>
+    <t>f(С)</t>
+  </si>
+  <si>
+    <t>С</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -244,23 +258,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
@@ -272,20 +274,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -301,9 +319,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -427,7 +445,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C9D0-4F02-B742-CFD8275B43F5}"/>
             </c:ext>
@@ -530,7 +548,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5D43-45BA-8FF1-7F098E3F0BE8}"/>
             </c:ext>
@@ -544,12 +562,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334418352"/>
-        <c:axId val="334419336"/>
-        <c:extLst/>
+        <c:axId val="210069376"/>
+        <c:axId val="210069768"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334418352"/>
+        <c:axId val="210069376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -673,7 +691,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -711,15 +729,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334419336"/>
+        <c:crossAx val="210069768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334419336"/>
+        <c:axId val="210069768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -836,7 +854,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -874,10 +892,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334418352"/>
+        <c:crossAx val="210069376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -910,7 +928,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -922,9 +940,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1036,7 +1054,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B79F-4C43-A013-E96D0B748642}"/>
             </c:ext>
@@ -1050,12 +1068,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334418352"/>
-        <c:axId val="334419336"/>
-        <c:extLst/>
+        <c:axId val="261116920"/>
+        <c:axId val="262963904"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334418352"/>
+        <c:axId val="261116920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1156,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1176,15 +1194,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334419336"/>
+        <c:crossAx val="262963904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334419336"/>
+        <c:axId val="262963904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1318,7 +1336,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1356,10 +1374,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334418352"/>
+        <c:crossAx val="261116920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="0.1"/>
@@ -1393,7 +1411,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1405,9 +1423,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1519,7 +1537,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C7C-4E2C-BCA2-0F793D81D92A}"/>
             </c:ext>
@@ -1610,7 +1628,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7874-4A78-8BD4-25FC1EE12992}"/>
             </c:ext>
@@ -1624,12 +1642,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334418352"/>
-        <c:axId val="334419336"/>
-        <c:extLst/>
+        <c:axId val="210070160"/>
+        <c:axId val="210070944"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334418352"/>
+        <c:axId val="210070160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1712,7 +1730,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1750,15 +1768,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334419336"/>
+        <c:crossAx val="210070944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334419336"/>
+        <c:axId val="210070944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1892,7 +1910,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1930,10 +1948,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334418352"/>
+        <c:crossAx val="210070160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1966,7 +1984,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1978,9 +1996,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2092,7 +2110,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2D3E-434A-B5C0-415B6D5B63B7}"/>
             </c:ext>
@@ -2106,12 +2124,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334418352"/>
-        <c:axId val="334419336"/>
-        <c:extLst/>
+        <c:axId val="210070552"/>
+        <c:axId val="210071728"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334418352"/>
+        <c:axId val="210070552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2194,7 +2212,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2232,15 +2250,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334419336"/>
+        <c:crossAx val="210071728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334419336"/>
+        <c:axId val="210071728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="28"/>
@@ -2376,7 +2394,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2414,10 +2432,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334418352"/>
+        <c:crossAx val="210070552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2450,7 +2468,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2462,9 +2480,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2576,7 +2594,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6BFD-48F9-9C32-A055575446E5}"/>
             </c:ext>
@@ -2667,7 +2685,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9D4F-46EE-82B1-287D4502F2BE}"/>
             </c:ext>
@@ -2681,12 +2699,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334418352"/>
-        <c:axId val="334419336"/>
-        <c:extLst/>
+        <c:axId val="261123192"/>
+        <c:axId val="261117704"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334418352"/>
+        <c:axId val="261123192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2769,7 +2787,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2807,15 +2825,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334419336"/>
+        <c:crossAx val="261117704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334419336"/>
+        <c:axId val="261117704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2949,7 +2967,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2987,10 +3005,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334418352"/>
+        <c:crossAx val="261123192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3023,7 +3041,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3035,9 +3053,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3149,7 +3167,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2D8-4C0F-A931-F49BD65369A8}"/>
             </c:ext>
@@ -3240,7 +3258,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6FDA-417E-9219-07A47E53B426}"/>
             </c:ext>
@@ -3254,12 +3272,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334418352"/>
-        <c:axId val="334419336"/>
-        <c:extLst/>
+        <c:axId val="261120840"/>
+        <c:axId val="261123584"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334418352"/>
+        <c:axId val="261120840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3342,7 +3360,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3380,15 +3398,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334419336"/>
+        <c:crossAx val="261123584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334419336"/>
+        <c:axId val="261123584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="19"/>
@@ -3523,7 +3541,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3561,10 +3579,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334418352"/>
+        <c:crossAx val="261120840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2"/>
@@ -3598,7 +3616,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3610,9 +3628,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3724,7 +3742,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9F4A-4CA6-BAAB-00F52DD453E6}"/>
             </c:ext>
@@ -3815,7 +3833,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-20CA-4E9A-86D4-1D4EA2AAD672}"/>
             </c:ext>
@@ -3829,12 +3847,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334418352"/>
-        <c:axId val="334419336"/>
-        <c:extLst/>
+        <c:axId val="261118880"/>
+        <c:axId val="261122016"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334418352"/>
+        <c:axId val="261118880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3917,7 +3935,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3955,15 +3973,15 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334419336"/>
+        <c:crossAx val="261122016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334419336"/>
+        <c:axId val="261122016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4097,7 +4115,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4135,10 +4153,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334418352"/>
+        <c:crossAx val="261118880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4171,7 +4189,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4183,9 +4201,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4291,7 +4309,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-911D-406C-933C-3E12833F12F5}"/>
             </c:ext>
@@ -4382,7 +4400,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6046-44E1-8417-063125F14CAD}"/>
             </c:ext>
@@ -4396,12 +4414,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334418352"/>
-        <c:axId val="334419336"/>
-        <c:extLst/>
+        <c:axId val="261122408"/>
+        <c:axId val="261121232"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334418352"/>
+        <c:axId val="261122408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4484,7 +4502,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4522,16 +4540,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334419336"/>
+        <c:crossAx val="261121232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334419336"/>
+        <c:axId val="261121232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4665,7 +4683,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4703,10 +4721,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334418352"/>
+        <c:crossAx val="261122408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4739,7 +4757,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4751,9 +4769,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4856,7 +4874,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8830-46D9-A067-8521698A41DA}"/>
             </c:ext>
@@ -4941,7 +4959,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-821E-446B-B703-8A7F4C236624}"/>
             </c:ext>
@@ -4955,12 +4973,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334418352"/>
-        <c:axId val="334419336"/>
-        <c:extLst/>
+        <c:axId val="261122800"/>
+        <c:axId val="261123976"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334418352"/>
+        <c:axId val="261122800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5043,7 +5061,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5081,16 +5099,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334419336"/>
+        <c:crossAx val="261123976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334419336"/>
+        <c:axId val="261123976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -5225,7 +5243,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5263,10 +5281,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334418352"/>
+        <c:crossAx val="261122800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5299,7 +5317,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5311,9 +5329,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="ru-RU"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5416,7 +5434,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C254-42C2-A68D-6C147826088D}"/>
             </c:ext>
@@ -5501,7 +5519,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F247-4FDF-B255-6AB4720E6073}"/>
             </c:ext>
@@ -5515,12 +5533,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="334418352"/>
-        <c:axId val="334419336"/>
-        <c:extLst/>
+        <c:axId val="261116528"/>
+        <c:axId val="261120056"/>
+        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="334418352"/>
+        <c:axId val="261116528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5603,7 +5621,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5641,16 +5659,16 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334419336"/>
+        <c:crossAx val="261120056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="334419336"/>
+        <c:axId val="261120056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5784,7 +5802,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="ru-RU"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5822,10 +5840,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="334418352"/>
+        <c:crossAx val="261116528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5858,7 +5876,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11755,9 +11773,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11795,7 +11813,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11867,7 +11885,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12041,52 +12059,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L58"/>
+  <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K70" sqref="K70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="10.28515625" customWidth="1"/>
-    <col min="8" max="8" width="10.42578125" customWidth="1"/>
-    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="7" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="22" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="14">
+      <c r="J2" s="10">
         <v>7</v>
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -12099,21 +12117,21 @@
       <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="8" t="s">
         <v>4</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="16">
+      <c r="J3" s="12">
         <v>5</v>
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="5"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -12126,21 +12144,21 @@
       <c r="E4" s="1">
         <v>0.2</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F4" s="19">
         <f>$J$9*LN(($J$14*(1-EXP(-B4*0.000001/$J$9))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
         <v>-4.9541850903711069</v>
       </c>
       <c r="H4" s="3"/>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="16">
+      <c r="J4" s="12">
         <v>1000</v>
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="9"/>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -12153,21 +12171,21 @@
       <c r="E5" s="1">
         <v>1.3</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="19">
         <f t="shared" ref="F5:F11" si="0">$J$9*LN(($J$14*(1-EXP(-B5*0.000001/$J$9))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
         <v>-2.0059663671044996</v>
       </c>
       <c r="H5" s="3"/>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="12">
         <v>1200</v>
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="5"/>
       <c r="B6" s="1">
         <v>6</v>
       </c>
@@ -12180,21 +12198,21 @@
       <c r="E6" s="1">
         <v>2.1</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="19">
         <f t="shared" si="0"/>
         <v>1.9121445811902988</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="12">
         <v>330000</v>
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>8</v>
       </c>
@@ -12207,21 +12225,21 @@
       <c r="E7" s="1">
         <v>3</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="19">
         <f t="shared" si="0"/>
         <v>4.4609146181423602</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="12">
         <v>1250</v>
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9"/>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="5"/>
       <c r="B8" s="1">
         <v>10</v>
       </c>
@@ -12234,21 +12252,21 @@
       <c r="E8" s="1">
         <v>2.6</v>
       </c>
-      <c r="F8" s="23">
+      <c r="F8" s="19">
         <f t="shared" si="0"/>
         <v>6.2672133301629565</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="10" t="s">
+      <c r="I8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="8">
+      <c r="J8" s="4">
         <v>25</v>
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="9"/>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="5"/>
       <c r="B9" s="1">
         <v>15</v>
       </c>
@@ -12261,21 +12279,21 @@
       <c r="E9" s="1">
         <v>2.9</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="19">
         <f t="shared" si="0"/>
         <v>9.0747631357705441</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="10" t="s">
+      <c r="I9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="13">
         <v>1.2099999999999999E-5</v>
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="9"/>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>20</v>
       </c>
@@ -12288,19 +12306,19 @@
       <c r="E10" s="1">
         <v>2.9</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="19">
         <f t="shared" si="0"/>
         <v>10.628154358731468</v>
       </c>
-      <c r="I10" s="10" t="s">
+      <c r="I10" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J10" s="17">
+      <c r="J10" s="13">
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="9"/>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="5"/>
       <c r="B11" s="1">
         <v>25</v>
       </c>
@@ -12313,56 +12331,56 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="19">
         <f t="shared" si="0"/>
         <v>11.556016405798539</v>
       </c>
-      <c r="I11" s="10" t="s">
+      <c r="I11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="8">
+      <c r="J11" s="4">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F12" s="21"/>
-      <c r="I12" s="10" t="s">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="F12" s="17"/>
+      <c r="I12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J12" s="13">
         <v>1.5099999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I13" s="10" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="17">
+      <c r="J13" s="13">
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I14" s="18" t="s">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="I14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="20">
         <v>3.16E-3</v>
       </c>
-      <c r="L14" s="11"/>
+      <c r="L14" s="7"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="22" t="s">
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -12388,7 +12406,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="1">
         <v>680</v>
       </c>
@@ -12405,17 +12423,17 @@
       <c r="F22" s="1">
         <v>3.8</v>
       </c>
-      <c r="G22" s="19">
+      <c r="G22" s="15">
         <f>$J$9*LN(C22/(C22-0.9*$J$10/$J$11))*1000000</f>
         <v>3.1342332361735341</v>
       </c>
-      <c r="H22" s="20"/>
-      <c r="I22" s="19">
+      <c r="H22" s="16"/>
+      <c r="I22" s="15">
         <f>$J$9*LN((C22*(1-EXP(-$J$13/$J$9))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
         <v>9.5449477515173662</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="1">
         <v>1000</v>
       </c>
@@ -12432,17 +12450,17 @@
       <c r="F23" s="1">
         <v>2.8</v>
       </c>
-      <c r="G23" s="19">
+      <c r="G23" s="15">
         <f t="shared" ref="G23:G27" si="2">$J$9*LN(C23/(C23-0.9*$J$10/$J$11))*1000000</f>
         <v>3.8387622582220349</v>
       </c>
-      <c r="H23" s="20"/>
-      <c r="I23" s="19">
+      <c r="H23" s="16"/>
+      <c r="I23" s="15">
         <f t="shared" ref="I23:I27" si="3">$J$9*LN((C23*(1-EXP(-$J$13/$J$9))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
         <v>7.4417224761610079</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="1">
         <v>1300</v>
       </c>
@@ -12459,17 +12477,17 @@
       <c r="F24" s="1">
         <v>2.6</v>
       </c>
-      <c r="G24" s="19">
+      <c r="G24" s="15">
         <f t="shared" si="2"/>
         <v>4.5396987784838547</v>
       </c>
-      <c r="H24" s="20"/>
-      <c r="I24" s="19">
+      <c r="H24" s="16"/>
+      <c r="I24" s="15">
         <f t="shared" si="3"/>
         <v>5.7566473915017715</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="1">
         <v>1630</v>
       </c>
@@ -12486,17 +12504,17 @@
       <c r="F25" s="1">
         <v>1.5</v>
       </c>
-      <c r="G25" s="19">
+      <c r="G25" s="15">
         <f t="shared" si="2"/>
         <v>5.3618998858038784</v>
       </c>
-      <c r="H25" s="20"/>
-      <c r="I25" s="19">
+      <c r="H25" s="16"/>
+      <c r="I25" s="15">
         <f t="shared" si="3"/>
         <v>4.1409886144360035</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="1">
         <v>2000</v>
       </c>
@@ -12513,17 +12531,17 @@
       <c r="F26" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G26" s="19">
+      <c r="G26" s="15">
         <f t="shared" si="2"/>
         <v>6.3570846316299221</v>
       </c>
-      <c r="H26" s="20"/>
-      <c r="I26" s="19">
+      <c r="H26" s="16"/>
+      <c r="I26" s="15">
         <f t="shared" si="3"/>
         <v>2.5557309971960596</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="1">
         <v>2330</v>
       </c>
@@ -12540,32 +12558,32 @@
       <c r="F27" s="1">
         <v>0.3</v>
       </c>
-      <c r="G27" s="19">
+      <c r="G27" s="15">
         <f t="shared" si="2"/>
         <v>7.3210115534289129</v>
       </c>
-      <c r="H27" s="20"/>
-      <c r="I27" s="19">
+      <c r="H27" s="16"/>
+      <c r="I27" s="15">
         <f t="shared" si="3"/>
         <v>1.2996124533725202</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G28" s="11"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G28" s="7"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B35" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="22" t="s">
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
@@ -12591,7 +12609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="1">
         <v>120000</v>
       </c>
@@ -12608,17 +12626,17 @@
       <c r="F37" s="1">
         <v>1.7</v>
       </c>
-      <c r="G37" s="20"/>
-      <c r="H37" s="19">
+      <c r="G37" s="16"/>
+      <c r="H37" s="15">
         <f>$J$9*LN((C37+$J$10/$J$11)/(C37+0.1*$J$10/$J$11))*1000000</f>
         <v>24.295753063962685</v>
       </c>
-      <c r="I37" s="19">
+      <c r="I37" s="15">
         <f>$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+C37)/($J$10/$J$11+C37))*1000000</f>
         <v>6.1478728451718911</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="1">
         <v>188000</v>
       </c>
@@ -12635,17 +12653,17 @@
       <c r="F38" s="1">
         <v>2.4</v>
       </c>
-      <c r="G38" s="20"/>
-      <c r="H38" s="19">
+      <c r="G38" s="16"/>
+      <c r="H38" s="15">
         <f t="shared" ref="H38:H42" si="5">$J$9*LN((C38+$J$10/$J$11)/(C38+0.1*$J$10/$J$11))*1000000</f>
         <v>25.437445122970246</v>
       </c>
-      <c r="I38" s="19">
+      <c r="I38" s="15">
         <f t="shared" ref="I38:I42" si="6">$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+C38)/($J$10/$J$11+C38))*1000000</f>
         <v>6.2149968703414338</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="1">
         <v>240000</v>
       </c>
@@ -12662,17 +12680,17 @@
       <c r="F39" s="1">
         <v>2.6</v>
       </c>
-      <c r="G39" s="20"/>
-      <c r="H39" s="19">
+      <c r="G39" s="16"/>
+      <c r="H39" s="15">
         <f t="shared" si="5"/>
         <v>25.913354121423854</v>
       </c>
-      <c r="I39" s="19">
+      <c r="I39" s="15">
         <f t="shared" si="6"/>
         <v>6.2410595110128293</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="1">
         <v>308000</v>
       </c>
@@ -12689,17 +12707,17 @@
       <c r="F40" s="1">
         <v>2.6</v>
       </c>
-      <c r="G40" s="20"/>
-      <c r="H40" s="19">
+      <c r="G40" s="16"/>
+      <c r="H40" s="15">
         <f t="shared" si="5"/>
         <v>26.311014316483025</v>
       </c>
-      <c r="I40" s="19">
+      <c r="I40" s="15">
         <f t="shared" si="6"/>
         <v>6.2620236552125412</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="1">
         <v>360000</v>
       </c>
@@ -12716,17 +12734,17 @@
       <c r="F41" s="1">
         <v>2.4</v>
       </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="19">
+      <c r="G41" s="16"/>
+      <c r="H41" s="15">
         <f t="shared" si="5"/>
         <v>26.520251807363881</v>
       </c>
-      <c r="I41" s="19">
+      <c r="I41" s="15">
         <f t="shared" si="6"/>
         <v>6.2727667643860157</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="1">
         <v>428000</v>
       </c>
@@ -12743,71 +12761,71 @@
       <c r="F42" s="1">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G42" s="20"/>
-      <c r="H42" s="19">
+      <c r="G42" s="16"/>
+      <c r="H42" s="15">
         <f t="shared" si="5"/>
         <v>26.72137870128552</v>
       </c>
-      <c r="I42" s="19">
+      <c r="I42" s="15">
         <f t="shared" si="6"/>
         <v>6.2829110380208641</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="4" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B50" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="22" t="s">
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
@@ -12833,7 +12851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="1">
         <v>680</v>
       </c>
@@ -12850,20 +12868,20 @@
       <c r="F52" s="1">
         <v>0</v>
       </c>
-      <c r="G52" s="19">
+      <c r="G52" s="15">
         <f>$J$9*LN($J$14/($J$14-0.9*C52/$J$11))*1000000</f>
         <v>9.6916429928769308</v>
       </c>
-      <c r="H52" s="19">
+      <c r="H52" s="15">
         <f>$J$9*LN(($J$12+C52/$J$11)/($J$12+0.1*C52/$J$11))*1000000</f>
         <v>27.046124158151166</v>
       </c>
-      <c r="I52" s="19">
+      <c r="I52" s="15">
         <f>$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C52/$J$11+$J$12))*1000000</f>
         <v>-1.0210563464969367</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="1">
         <v>1000</v>
       </c>
@@ -12880,20 +12898,20 @@
       <c r="F53" s="1">
         <v>2</v>
       </c>
-      <c r="G53" s="19">
+      <c r="G53" s="15">
         <f t="shared" ref="G53:G58" si="8">$J$9*LN($J$14/($J$14-0.9*C53/$J$11))*1000000</f>
         <v>5.6822081048434718</v>
       </c>
-      <c r="H53" s="19">
-        <f t="shared" ref="H53:H58" si="9">$J$9*LN(($J$12+C53/$J$11)/($J$12+0.1*C53/$J$11))*1000000</f>
+      <c r="H53" s="15">
+        <f t="shared" ref="H53:H56" si="9">$J$9*LN(($J$12+C53/$J$11)/($J$12+0.1*C53/$J$11))*1000000</f>
         <v>26.684814957935863</v>
       </c>
-      <c r="I53" s="19">
-        <f t="shared" ref="I53:I58" si="10">$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C53/$J$11+$J$12))*1000000</f>
+      <c r="I53" s="15">
+        <f t="shared" ref="I53:I56" si="10">$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C53/$J$11+$J$12))*1000000</f>
         <v>3.6014488080201907</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="1">
         <v>1160</v>
       </c>
@@ -12910,20 +12928,20 @@
       <c r="F54" s="1">
         <v>2.6</v>
       </c>
-      <c r="G54" s="19">
+      <c r="G54" s="15">
         <f t="shared" si="8"/>
         <v>4.7210976292215392</v>
       </c>
-      <c r="H54" s="19">
+      <c r="H54" s="15">
         <f t="shared" si="9"/>
         <v>26.50908078609806</v>
       </c>
-      <c r="I54" s="19">
+      <c r="I54" s="15">
         <f t="shared" si="10"/>
         <v>5.3753853227289419</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="1">
         <v>1330</v>
       </c>
@@ -12940,20 +12958,20 @@
       <c r="F55" s="1">
         <v>3.6</v>
       </c>
-      <c r="G55" s="19">
+      <c r="G55" s="15">
         <f t="shared" si="8"/>
         <v>4.0046318418882452</v>
       </c>
-      <c r="H55" s="19">
+      <c r="H55" s="15">
         <f t="shared" si="9"/>
         <v>26.325799174194675</v>
       </c>
-      <c r="I55" s="19">
+      <c r="I55" s="15">
         <f t="shared" si="10"/>
         <v>7.0068948471104155</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="1">
         <v>1680</v>
       </c>
@@ -12966,51 +12984,210 @@
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
-      <c r="G56" s="19">
+      <c r="G56" s="15">
         <f t="shared" si="8"/>
         <v>3.0540318653035912</v>
       </c>
-      <c r="H56" s="19">
+      <c r="H56" s="15">
         <f t="shared" si="9"/>
         <v>25.959103723739688</v>
       </c>
-      <c r="I56" s="19">
+      <c r="I56" s="15">
         <f t="shared" si="10"/>
         <v>9.785858776738964</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
-      <c r="G57" s="19">
+      <c r="G57" s="15">
         <f>$J$9*LN($J$14/($J$14-0.9*C57/$J$11))*1000000</f>
         <v>0</v>
       </c>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
+      <c r="H57" s="15"/>
+      <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="19">
+      <c r="G58" s="15">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
+      <c r="H58" s="15"/>
+      <c r="I58" s="15"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B65" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B67" s="27">
+        <v>6.8000000000000003E-10</v>
+      </c>
+      <c r="C67" s="1">
+        <f>B67*$J$5*$J$4/($J$5+$J$4)</f>
+        <v>3.7090909090909088E-7</v>
+      </c>
+      <c r="D67" s="27">
+        <v>3.0000000000000001E-6</v>
+      </c>
+      <c r="E67" s="27">
+        <v>3.3000000000000003E-5</v>
+      </c>
+      <c r="F67" s="27">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G67" s="15">
+        <f>$J$9*LN($J$14/($J$14-0.9*C67/$J$11))*1000000</f>
+        <v>6.727533692291262E-5</v>
+      </c>
+      <c r="H67" s="15">
+        <f>$J$9*LN(($J$12+C67/$J$11)/($J$12+0.1*C67/$J$11))*1000000</f>
+        <v>1.4068771090081051E-2</v>
+      </c>
+      <c r="I67" s="15">
+        <f>$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C67/$J$11+$J$12))*1000000</f>
+        <v>57.780603005856506</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B68" s="27">
+        <v>1.5E-9</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" ref="C68:C70" si="11">B68*$J$5*$J$4/($J$5+$J$4)</f>
+        <v>8.1818181818181813E-7</v>
+      </c>
+      <c r="D68" s="27">
+        <v>2.5000000000000002E-6</v>
+      </c>
+      <c r="E68" s="27">
+        <v>2.8E-5</v>
+      </c>
+      <c r="F68" s="27">
+        <v>7.9999999999999996E-7</v>
+      </c>
+      <c r="G68" s="15">
+        <f t="shared" ref="G68:G70" si="12">$J$9*LN($J$14/($J$14-0.9*C68/$J$11))*1000000</f>
+        <v>1.4840197599999539E-4</v>
+      </c>
+      <c r="H68" s="15">
+        <f t="shared" ref="H68:H70" si="13">$J$9*LN(($J$12+C68/$J$11)/($J$12+0.1*C68/$J$11))*1000000</f>
+        <v>3.1007499133283239E-2</v>
+      </c>
+      <c r="I68" s="15">
+        <f t="shared" ref="I68:I70" si="14">$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C68/$J$11+$J$12))*1000000</f>
+        <v>57.761778297084931</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" s="27">
+        <v>3E-9</v>
+      </c>
+      <c r="C69" s="1">
+        <f t="shared" si="11"/>
+        <v>1.6363636363636363E-6</v>
+      </c>
+      <c r="D69" s="27">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="E69" s="27">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="F69" s="27">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="G69" s="15">
+        <f t="shared" si="12"/>
+        <v>2.9680577211535036E-4</v>
+      </c>
+      <c r="H69" s="15">
+        <f t="shared" si="13"/>
+        <v>6.1918133724177732E-2</v>
+      </c>
+      <c r="I69" s="15">
+        <f t="shared" si="14"/>
+        <v>57.727418458258157</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" s="27">
+        <v>5.1000000000000002E-9</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" si="11"/>
+        <v>2.7818181818181817E-6</v>
+      </c>
+      <c r="D70" s="27">
+        <v>4.9999999999999998E-7</v>
+      </c>
+      <c r="E70" s="27">
+        <v>1.9999999999999999E-6</v>
+      </c>
+      <c r="F70" s="27">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="G70" s="15">
+        <f t="shared" si="12"/>
+        <v>5.045741445612429E-4</v>
+      </c>
+      <c r="H70" s="15">
+        <f t="shared" si="13"/>
+        <v>0.10503134283450985</v>
+      </c>
+      <c r="I70" s="15">
+        <f t="shared" si="14"/>
+        <v>57.679478014437635</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B65:F65"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/lab4/lab4.xlsx
+++ b/lab4/lab4.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
   <si>
     <t>R</t>
   </si>
@@ -87,15 +87,18 @@
   <si>
     <t>С</t>
   </si>
+  <si>
+    <t>Альтернативная</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +128,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -258,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -285,6 +296,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -300,10 +312,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -319,9 +334,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -445,7 +460,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-C9D0-4F02-B742-CFD8275B43F5}"/>
             </c:ext>
@@ -548,7 +563,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-5D43-45BA-8FF1-7F098E3F0BE8}"/>
             </c:ext>
@@ -564,7 +579,7 @@
         </c:dLbls>
         <c:axId val="210069376"/>
         <c:axId val="210069768"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="210069376"/>
@@ -691,7 +706,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -729,7 +744,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="210069768"/>
@@ -854,7 +869,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -892,7 +907,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="210069376"/>
@@ -928,7 +943,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -940,9 +955,9 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1054,7 +1069,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-B79F-4C43-A013-E96D0B748642}"/>
             </c:ext>
@@ -1070,7 +1085,7 @@
         </c:dLbls>
         <c:axId val="261116920"/>
         <c:axId val="262963904"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="261116920"/>
@@ -1156,7 +1171,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1194,7 +1209,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="262963904"/>
@@ -1336,7 +1351,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1374,7 +1389,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261116920"/>
@@ -1411,7 +1426,3298 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24864814415918135"/>
+          <c:y val="5.9379695858628345E-2"/>
+          <c:w val="0.5885238589748315"/>
+          <c:h val="0.7575175812947047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>exp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$67:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8000000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$67:$D$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.9999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4999999999999999E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9999999999999998E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-83D2-4BAE-A151-CC7690EA4E14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$67:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8000000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$67:$G$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.3218809089877854E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9159137698259972E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8318275396519944E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.9141068174083899E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-83D2-4BAE-A151-CC7690EA4E14}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261122408"/>
+        <c:axId val="261121232"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261122408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>б1</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261121232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261121232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>ф</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1373784890993269E-3"/>
+              <c:y val="0.3844234737833343"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261122408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22708025639835963"/>
+          <c:y val="4.920175397237022E-2"/>
+          <c:w val="0.68829622836211268"/>
+          <c:h val="0.7575175812947047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>exp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$67:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8000000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$67:$E$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.3000000000000002E-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000001E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9999999999999999E-7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2DBD-496D-BB1F-4026E804945A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$67:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8000000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$67:$H$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>8.0961226626873885E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7859094108869239E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5718188217738478E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0720919970155417E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2DBD-496D-BB1F-4026E804945A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261122800"/>
+        <c:axId val="261123976"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261122800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>б1</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261123976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261123976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>сп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1373784890993269E-3"/>
+              <c:y val="0.3844234737833343"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261122800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20108557342443117"/>
+          <c:y val="4.920175397237022E-2"/>
+          <c:w val="0.7142910750458662"/>
+          <c:h val="0.7575175812947047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>exp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$67:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8000000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$67:$F$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-26D4-41DB-ABBA-F94456E46CD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$B$67:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.8000000000000003E-10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5E-9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3E-9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000002E-9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$67:$I$70</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0421774709994098E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9165278883562132E-7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.779697265075617E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9545296454141819E-6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-26D4-41DB-ABBA-F94456E46CD3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261116528"/>
+        <c:axId val="261120056"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261116528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>б1</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261120056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261120056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>расс</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1220070997907451E-3"/>
+              <c:y val="0.3844234737833343"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261116528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24864814415918135"/>
+          <c:y val="5.9379695858628345E-2"/>
+          <c:w val="0.5885238589748315"/>
+          <c:h val="0.7575175812947047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>exp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$74:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$74:$D$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FD71-4F6F-AB20-7038AE067217}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$74:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$G$74:$G$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.13218809089877853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.29159137698259974</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58318275396519947</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99141068174083902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FD71-4F6F-AB20-7038AE067217}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261122408"/>
+        <c:axId val="261121232"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261122408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, нф</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261121232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261121232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>ф</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1373784890993269E-3"/>
+              <c:y val="0.3844234737833343"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261122408"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22708025639835963"/>
+          <c:y val="4.920175397237022E-2"/>
+          <c:w val="0.68829622836211268"/>
+          <c:h val="0.7575175812947047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>exp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$74:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$74:$E$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2F60-4AA5-A61C-8DD342FAB525}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$74:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$H$74:$H$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.80961226626873883</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.785909410886924</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.571818821773848</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.0720919970155416</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2F60-4AA5-A61C-8DD342FAB525}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261122800"/>
+        <c:axId val="261123976"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261122800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>C, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>нф</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261123976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261123976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>сп</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1373784890993269E-3"/>
+              <c:y val="0.3844234737833343"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261122800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.20108557342443117"/>
+          <c:y val="4.920175397237022E-2"/>
+          <c:w val="0.7142910750458662"/>
+          <c:h val="0.7575175812947047"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>exp</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$74:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$F$74:$F$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.01</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0000000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B195-44BF-AD1D-7739B54787E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>teo</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$74:$A$77</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.1000000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$I$74:$I$77</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.40421774709994096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89165278883562127</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7796972650756169</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9545296454141821</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B195-44BF-AD1D-7739B54787E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261116528"/>
+        <c:axId val="261120056"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261116528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>C</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, нф</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261120056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261120056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:sysClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>t</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
+                    <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  </a:rPr>
+                  <a:t>расс</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400">
+                  <a:effectLst/>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.1220070997907451E-3"/>
+              <c:y val="0.3844234737833343"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:sysClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261116528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1423,9 +4729,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1537,7 +4843,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7C7C-4E2C-BCA2-0F793D81D92A}"/>
             </c:ext>
@@ -1628,7 +4934,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-7874-4A78-8BD4-25FC1EE12992}"/>
             </c:ext>
@@ -1644,7 +4950,7 @@
         </c:dLbls>
         <c:axId val="210070160"/>
         <c:axId val="210070944"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="210070160"/>
@@ -1730,7 +5036,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1768,7 +5074,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="210070944"/>
@@ -1910,7 +5216,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1948,7 +5254,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="210070160"/>
@@ -1984,7 +5290,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1996,9 +5302,9 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2110,7 +5416,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2D3E-434A-B5C0-415B6D5B63B7}"/>
             </c:ext>
@@ -2126,7 +5432,7 @@
         </c:dLbls>
         <c:axId val="210070552"/>
         <c:axId val="210071728"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="210070552"/>
@@ -2212,7 +5518,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2250,7 +5556,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="210071728"/>
@@ -2394,7 +5700,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2432,7 +5738,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="210070552"/>
@@ -2468,7 +5774,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2480,9 +5786,9 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2594,7 +5900,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6BFD-48F9-9C32-A055575446E5}"/>
             </c:ext>
@@ -2685,7 +5991,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9D4F-46EE-82B1-287D4502F2BE}"/>
             </c:ext>
@@ -2701,7 +6007,7 @@
         </c:dLbls>
         <c:axId val="261123192"/>
         <c:axId val="261117704"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="261123192"/>
@@ -2787,7 +6093,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2825,7 +6131,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261117704"/>
@@ -2967,7 +6273,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3005,7 +6311,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261123192"/>
@@ -3041,7 +6347,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3053,9 +6359,9 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3167,7 +6473,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-E2D8-4C0F-A931-F49BD65369A8}"/>
             </c:ext>
@@ -3258,7 +6564,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6FDA-417E-9219-07A47E53B426}"/>
             </c:ext>
@@ -3274,7 +6580,7 @@
         </c:dLbls>
         <c:axId val="261120840"/>
         <c:axId val="261123584"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="261120840"/>
@@ -3360,7 +6666,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3398,7 +6704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261123584"/>
@@ -3541,7 +6847,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3579,7 +6885,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261120840"/>
@@ -3616,7 +6922,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3628,9 +6934,9 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3742,7 +7048,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9F4A-4CA6-BAAB-00F52DD453E6}"/>
             </c:ext>
@@ -3833,7 +7139,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-20CA-4E9A-86D4-1D4EA2AAD672}"/>
             </c:ext>
@@ -3849,7 +7155,7 @@
         </c:dLbls>
         <c:axId val="261118880"/>
         <c:axId val="261122016"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="261118880"/>
@@ -3935,7 +7241,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3973,7 +7279,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261122016"/>
@@ -4115,7 +7421,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4153,7 +7459,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261118880"/>
@@ -4189,7 +7495,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4201,9 +7507,9 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4309,7 +7615,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-911D-406C-933C-3E12833F12F5}"/>
             </c:ext>
@@ -4400,7 +7706,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6046-44E1-8417-063125F14CAD}"/>
             </c:ext>
@@ -4416,7 +7722,7 @@
         </c:dLbls>
         <c:axId val="261122408"/>
         <c:axId val="261121232"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="261122408"/>
@@ -4502,7 +7808,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4540,7 +7846,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261121232"/>
@@ -4683,7 +7989,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4721,7 +8027,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261122408"/>
@@ -4757,7 +8063,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4769,9 +8075,9 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4874,7 +8180,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8830-46D9-A067-8521698A41DA}"/>
             </c:ext>
@@ -4959,7 +8265,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-821E-446B-B703-8A7F4C236624}"/>
             </c:ext>
@@ -4975,7 +8281,7 @@
         </c:dLbls>
         <c:axId val="261122800"/>
         <c:axId val="261123976"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="261122800"/>
@@ -5061,7 +8367,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5099,7 +8405,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261123976"/>
@@ -5243,7 +8549,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5281,7 +8587,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261122800"/>
@@ -5317,7 +8623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5329,9 +8635,9 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="ru-RU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5434,7 +8740,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-C254-42C2-A68D-6C147826088D}"/>
             </c:ext>
@@ -5519,7 +8825,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-F247-4FDF-B255-6AB4720E6073}"/>
             </c:ext>
@@ -5535,7 +8841,7 @@
         </c:dLbls>
         <c:axId val="261116528"/>
         <c:axId val="261120056"/>
-        <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart"/>
+        <c:extLst/>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="261116528"/>
@@ -5621,7 +8927,7 @@
                   <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5659,7 +8965,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261120056"/>
@@ -5802,7 +9108,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="ru-RU"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5840,7 +9146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="261116528"/>
@@ -5876,7 +9182,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="ru-RU"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5928,6 +9234,246 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -7319,6 +10865,3102 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -11769,13 +18411,205 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>423581</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Chart 17"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>499780</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="Chart 18"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>117763</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>19047</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="Chart 19"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>318806</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="21" name="Chart 20"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>485774</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>80680</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Chart 21"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>308263</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>209547</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Chart 22"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -11813,7 +18647,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -11885,7 +18719,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -12059,37 +18893,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L70"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K70" sqref="K70"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R88" sqref="R88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" customWidth="1"/>
-    <col min="9" max="9" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
       <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
@@ -12104,7 +18938,7 @@
       </c>
       <c r="K2" s="3"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
@@ -12130,7 +18964,7 @@
       </c>
       <c r="K3" s="3"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="1">
         <v>3</v>
@@ -12157,7 +18991,7 @@
       </c>
       <c r="K4" s="3"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="5"/>
       <c r="B5" s="1">
         <v>4</v>
@@ -12184,7 +19018,7 @@
       </c>
       <c r="K5" s="3"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="5"/>
       <c r="B6" s="1">
         <v>6</v>
@@ -12211,7 +19045,7 @@
       </c>
       <c r="K6" s="3"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
       <c r="B7" s="1">
         <v>8</v>
@@ -12238,7 +19072,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
       <c r="B8" s="1">
         <v>10</v>
@@ -12265,7 +19099,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
       <c r="B9" s="1">
         <v>15</v>
@@ -12292,7 +19126,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="1">
         <v>20</v>
@@ -12317,7 +19151,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="1">
         <v>25</v>
@@ -12342,7 +19176,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F12" s="17"/>
       <c r="I12" s="6" t="s">
         <v>13</v>
@@ -12351,7 +19185,7 @@
         <v>1.5099999999999999E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I13" s="6" t="s">
         <v>12</v>
       </c>
@@ -12359,7 +19193,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I14" s="14" t="s">
         <v>1</v>
       </c>
@@ -12368,19 +19202,19 @@
       </c>
       <c r="L14" s="7"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="22" t="s">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>0</v>
       </c>
@@ -12406,7 +19240,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>680</v>
       </c>
@@ -12433,7 +19267,7 @@
         <v>9.5449477515173662</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1">
         <v>1000</v>
       </c>
@@ -12460,7 +19294,7 @@
         <v>7.4417224761610079</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1">
         <v>1300</v>
       </c>
@@ -12487,7 +19321,7 @@
         <v>5.7566473915017715</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1">
         <v>1630</v>
       </c>
@@ -12514,7 +19348,7 @@
         <v>4.1409886144360035</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1">
         <v>2000</v>
       </c>
@@ -12541,7 +19375,7 @@
         <v>2.5557309971960596</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1">
         <v>2330</v>
       </c>
@@ -12568,22 +19402,22 @@
         <v>1.2996124533725202</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="G28" s="7"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B35" s="23" t="s">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B35" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
         <v>8</v>
       </c>
@@ -12609,7 +19443,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1">
         <v>120000</v>
       </c>
@@ -12636,7 +19470,7 @@
         <v>6.1478728451718911</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1">
         <v>188000</v>
       </c>
@@ -12663,7 +19497,7 @@
         <v>6.2149968703414338</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1">
         <v>240000</v>
       </c>
@@ -12690,7 +19524,7 @@
         <v>6.2410595110128293</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1">
         <v>308000</v>
       </c>
@@ -12717,7 +19551,7 @@
         <v>6.2620236552125412</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1">
         <v>360000</v>
       </c>
@@ -12744,7 +19578,7 @@
         <v>6.2727667643860157</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1">
         <v>428000</v>
       </c>
@@ -12771,61 +19605,61 @@
         <v>6.2829110380208641</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B50" s="22" t="s">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
       <c r="G50" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>9</v>
       </c>
@@ -12851,7 +19685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="1">
         <v>680</v>
       </c>
@@ -12881,7 +19715,7 @@
         <v>-1.0210563464969367</v>
       </c>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="1">
         <v>1000</v>
       </c>
@@ -12911,7 +19745,7 @@
         <v>3.6014488080201907</v>
       </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="1">
         <v>1160</v>
       </c>
@@ -12941,7 +19775,7 @@
         <v>5.3753853227289419</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="1">
         <v>1330</v>
       </c>
@@ -12971,7 +19805,7 @@
         <v>7.0068948471104155</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="1">
         <v>1680</v>
       </c>
@@ -12997,7 +19831,7 @@
         <v>9.785858776738964</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -13010,7 +19844,7 @@
       <c r="H57" s="15"/>
       <c r="I57" s="15"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -13023,19 +19857,22 @@
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B65" s="26" t="s">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B64" s="28"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B65" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="24"/>
-      <c r="D65" s="24"/>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
+      <c r="C65" s="25"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
       <c r="G65" s="18" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
         <v>23</v>
       </c>
@@ -13061,128 +19898,342 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B67" s="27">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B67" s="22">
         <v>6.8000000000000003E-10</v>
       </c>
       <c r="C67" s="1">
         <f>B67*$J$5*$J$4/($J$5+$J$4)</f>
         <v>3.7090909090909088E-7</v>
       </c>
-      <c r="D67" s="27">
-        <v>3.0000000000000001E-6</v>
-      </c>
-      <c r="E67" s="27">
-        <v>3.3000000000000003E-5</v>
-      </c>
-      <c r="F67" s="27">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G67" s="15">
-        <f>$J$9*LN($J$14/($J$14-0.9*C67/$J$11))*1000000</f>
-        <v>6.727533692291262E-5</v>
-      </c>
-      <c r="H67" s="15">
-        <f>$J$9*LN(($J$12+C67/$J$11)/($J$12+0.1*C67/$J$11))*1000000</f>
-        <v>1.4068771090081051E-2</v>
-      </c>
-      <c r="I67" s="15">
-        <f>$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C67/$J$11+$J$12))*1000000</f>
-        <v>57.780603005856506</v>
+      <c r="D67" s="22">
+        <v>2.9999999999999999E-7</v>
+      </c>
+      <c r="E67" s="22">
+        <v>3.3000000000000002E-6</v>
+      </c>
+      <c r="F67" s="22">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="G67" s="22">
+        <f>C67*LN($J$14/($J$14-0.9*$J$10/$J$11))</f>
+        <v>1.3218809089877854E-7</v>
+      </c>
+      <c r="H67" s="22">
+        <f>C67*LN(($J$12+$J$10/$J$11)/($J$12+0.1*$J$10/$J$11))</f>
+        <v>8.0961226626873885E-7</v>
+      </c>
+      <c r="I67" s="22">
+        <f>C67*LN(($J$14*(1-EXP(-$J$13/C67))+$J$12)/($J$10/$J$11+$J$12))</f>
+        <v>4.0421774709994098E-7</v>
       </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B68" s="27">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B68" s="22">
         <v>1.5E-9</v>
       </c>
       <c r="C68" s="1">
         <f t="shared" ref="C68:C70" si="11">B68*$J$5*$J$4/($J$5+$J$4)</f>
         <v>8.1818181818181813E-7</v>
       </c>
-      <c r="D68" s="27">
-        <v>2.5000000000000002E-6</v>
-      </c>
-      <c r="E68" s="27">
-        <v>2.8E-5</v>
-      </c>
-      <c r="F68" s="27">
-        <v>7.9999999999999996E-7</v>
-      </c>
-      <c r="G68" s="15">
-        <f t="shared" ref="G68:G70" si="12">$J$9*LN($J$14/($J$14-0.9*C68/$J$11))*1000000</f>
-        <v>1.4840197599999539E-4</v>
-      </c>
-      <c r="H68" s="15">
-        <f t="shared" ref="H68:H70" si="13">$J$9*LN(($J$12+C68/$J$11)/($J$12+0.1*C68/$J$11))*1000000</f>
-        <v>3.1007499133283239E-2</v>
-      </c>
-      <c r="I68" s="15">
-        <f t="shared" ref="I68:I70" si="14">$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C68/$J$11+$J$12))*1000000</f>
-        <v>57.761778297084931</v>
+      <c r="D68" s="22">
+        <v>2.4999999999999999E-7</v>
+      </c>
+      <c r="E68" s="22">
+        <v>2.7999999999999999E-6</v>
+      </c>
+      <c r="F68" s="22">
+        <v>8.0000000000000002E-8</v>
+      </c>
+      <c r="G68" s="22">
+        <f t="shared" ref="G68:G70" si="12">C68*LN($J$14/($J$14-0.9*$J$10/$J$11))</f>
+        <v>2.9159137698259972E-7</v>
+      </c>
+      <c r="H68" s="22">
+        <f t="shared" ref="H68:H70" si="13">C68*LN(($J$12+$J$10/$J$11)/($J$12+0.1*$J$10/$J$11))</f>
+        <v>1.7859094108869239E-6</v>
+      </c>
+      <c r="I68" s="22">
+        <f t="shared" ref="I68:I70" si="14">C68*LN(($J$14*(1-EXP(-$J$13/C68))+$J$12)/($J$10/$J$11+$J$12))</f>
+        <v>8.9165278883562132E-7</v>
       </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B69" s="27">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B69" s="22">
         <v>3E-9</v>
       </c>
       <c r="C69" s="1">
         <f t="shared" si="11"/>
         <v>1.6363636363636363E-6</v>
       </c>
-      <c r="D69" s="27">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="E69" s="27">
-        <v>2.1999999999999999E-5</v>
-      </c>
-      <c r="F69" s="27">
-        <v>1.9999999999999999E-7</v>
-      </c>
-      <c r="G69" s="15">
+      <c r="D69" s="22">
+        <v>9.9999999999999995E-8</v>
+      </c>
+      <c r="E69" s="22">
+        <v>2.2000000000000001E-6</v>
+      </c>
+      <c r="F69" s="22">
+        <v>2E-8</v>
+      </c>
+      <c r="G69" s="22">
         <f t="shared" si="12"/>
-        <v>2.9680577211535036E-4</v>
-      </c>
-      <c r="H69" s="15">
+        <v>5.8318275396519944E-7</v>
+      </c>
+      <c r="H69" s="22">
         <f t="shared" si="13"/>
-        <v>6.1918133724177732E-2</v>
-      </c>
-      <c r="I69" s="15">
+        <v>3.5718188217738478E-6</v>
+      </c>
+      <c r="I69" s="22">
         <f t="shared" si="14"/>
-        <v>57.727418458258157</v>
+        <v>1.779697265075617E-6</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B70" s="27">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B70" s="22">
         <v>5.1000000000000002E-9</v>
       </c>
       <c r="C70" s="1">
         <f t="shared" si="11"/>
         <v>2.7818181818181817E-6</v>
       </c>
-      <c r="D70" s="27">
-        <v>4.9999999999999998E-7</v>
-      </c>
-      <c r="E70" s="27">
-        <v>1.9999999999999999E-6</v>
-      </c>
-      <c r="F70" s="27">
-        <v>9.9999999999999995E-7</v>
-      </c>
-      <c r="G70" s="15">
+      <c r="D70" s="22">
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="E70" s="22">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="F70" s="22">
+        <v>1E-8</v>
+      </c>
+      <c r="G70" s="22">
         <f t="shared" si="12"/>
-        <v>5.045741445612429E-4</v>
-      </c>
-      <c r="H70" s="15">
+        <v>9.9141068174083899E-7</v>
+      </c>
+      <c r="H70" s="22">
         <f t="shared" si="13"/>
-        <v>0.10503134283450985</v>
-      </c>
-      <c r="I70" s="15">
+        <v>6.0720919970155417E-6</v>
+      </c>
+      <c r="I70" s="22">
         <f t="shared" si="14"/>
-        <v>57.679478014437635</v>
-      </c>
+        <v>2.9545296454141819E-6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B72" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="29"/>
+      <c r="D72" s="29"/>
+      <c r="E72" s="29"/>
+      <c r="F72" s="29"/>
+      <c r="G72" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B73" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <f>B74*1000000000</f>
+        <v>0.68</v>
+      </c>
+      <c r="B74" s="22">
+        <v>6.8000000000000003E-10</v>
+      </c>
+      <c r="C74" s="1">
+        <f>B74*$J$5*$J$4/($J$5+$J$4)</f>
+        <v>3.7090909090909088E-7</v>
+      </c>
+      <c r="D74" s="2">
+        <f>D67*100000</f>
+        <v>0.03</v>
+      </c>
+      <c r="E74" s="2">
+        <f t="shared" ref="E74:F74" si="15">E67*100000</f>
+        <v>0.33</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" si="15"/>
+        <v>0.01</v>
+      </c>
+      <c r="G74" s="15">
+        <f>C74*LN($J$14/($J$14-0.9*$J$10/$J$11))*1000000</f>
+        <v>0.13218809089877853</v>
+      </c>
+      <c r="H74" s="15">
+        <f>C74*LN(($J$12+$J$10/$J$11)/($J$12+0.1*$J$10/$J$11))*1000000</f>
+        <v>0.80961226626873883</v>
+      </c>
+      <c r="I74" s="15">
+        <f>C74*LN(($J$14*(1-EXP(-$J$13/C74))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
+        <v>0.40421774709994096</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="7">
+        <f t="shared" ref="A75:A77" si="16">B75*1000000000</f>
+        <v>1.5</v>
+      </c>
+      <c r="B75" s="22">
+        <v>1.5E-9</v>
+      </c>
+      <c r="C75" s="1">
+        <f t="shared" ref="C75:C77" si="17">B75*$J$5*$J$4/($J$5+$J$4)</f>
+        <v>8.1818181818181813E-7</v>
+      </c>
+      <c r="D75" s="2">
+        <f t="shared" ref="D75:F75" si="18">D68*100000</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="E75" s="2">
+        <f t="shared" si="18"/>
+        <v>0.27999999999999997</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="18"/>
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="G75" s="15">
+        <f t="shared" ref="G75:G77" si="19">C75*LN($J$14/($J$14-0.9*$J$10/$J$11))*1000000</f>
+        <v>0.29159137698259974</v>
+      </c>
+      <c r="H75" s="15">
+        <f t="shared" ref="H75:H77" si="20">C75*LN(($J$12+$J$10/$J$11)/($J$12+0.1*$J$10/$J$11))*1000000</f>
+        <v>1.785909410886924</v>
+      </c>
+      <c r="I75" s="15">
+        <f t="shared" ref="I75:I77" si="21">C75*LN(($J$14*(1-EXP(-$J$13/C75))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
+        <v>0.89165278883562127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" s="7">
+        <f t="shared" si="16"/>
+        <v>3</v>
+      </c>
+      <c r="B76" s="22">
+        <v>3E-9</v>
+      </c>
+      <c r="C76" s="1">
+        <f t="shared" si="17"/>
+        <v>1.6363636363636363E-6</v>
+      </c>
+      <c r="D76" s="2">
+        <f t="shared" ref="D76:F76" si="22">D69*100000</f>
+        <v>0.01</v>
+      </c>
+      <c r="E76" s="2">
+        <f t="shared" si="22"/>
+        <v>0.22</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="22"/>
+        <v>2E-3</v>
+      </c>
+      <c r="G76" s="15">
+        <f t="shared" si="19"/>
+        <v>0.58318275396519947</v>
+      </c>
+      <c r="H76" s="15">
+        <f t="shared" si="20"/>
+        <v>3.571818821773848</v>
+      </c>
+      <c r="I76" s="15">
+        <f t="shared" si="21"/>
+        <v>1.7796972650756169</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" s="7">
+        <f t="shared" si="16"/>
+        <v>5.1000000000000005</v>
+      </c>
+      <c r="B77" s="22">
+        <v>5.1000000000000002E-9</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="17"/>
+        <v>2.7818181818181817E-6</v>
+      </c>
+      <c r="D77" s="2">
+        <f t="shared" ref="D77:F77" si="23">D70*100000</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E77" s="2">
+        <f t="shared" si="23"/>
+        <v>0.02</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="23"/>
+        <v>1E-3</v>
+      </c>
+      <c r="G77" s="15">
+        <f t="shared" si="19"/>
+        <v>0.99141068174083902</v>
+      </c>
+      <c r="H77" s="15">
+        <f t="shared" si="20"/>
+        <v>6.0720919970155416</v>
+      </c>
+      <c r="I77" s="15">
+        <f t="shared" si="21"/>
+        <v>2.9545296454141821</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="B72:F72"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="B50:F50"/>

--- a/lab4/lab4.xlsx
+++ b/lab4/lab4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="28">
   <si>
     <t>R</t>
   </si>
@@ -88,7 +88,16 @@
     <t>С</t>
   </si>
   <si>
-    <t>Альтернативная</t>
+    <t>не хочется</t>
+  </si>
+  <si>
+    <t>Альтернативная теория</t>
+  </si>
+  <si>
+    <t>С, Ф</t>
+  </si>
+  <si>
+    <t>нФ</t>
   </si>
 </sst>
 </file>
@@ -269,7 +278,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -297,6 +306,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -312,9 +325,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -638,23 +651,31 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>t</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="-25000">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>имп, </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="0">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>мкс</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1600">
                   <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -808,23 +829,31 @@
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>t</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1600" b="0" i="0" baseline="-25000">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>расс, </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1600">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>мкс</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1600">
                   <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -977,7 +1006,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.23078084202126264"/>
           <c:y val="4.920175397237022E-2"/>
-          <c:w val="0.65776833256156519"/>
+          <c:w val="0.65861307419001081"/>
           <c:h val="0.7575175812947047"/>
         </c:manualLayout>
       </c:layout>
@@ -1114,13 +1143,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1138,6 +1181,18 @@
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>б2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>А</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -1158,13 +1213,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3106,9 +3175,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.24864814415918135"/>
-          <c:y val="5.9379695858628345E-2"/>
-          <c:w val="0.5885238589748315"/>
-          <c:h val="0.7575175812947047"/>
+          <c:y val="4.4112520286109277E-2"/>
+          <c:w val="0.71252905167029568"/>
+          <c:h val="0.7727847568672237"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3334,7 +3403,7 @@
                   <a:rPr lang="ru-RU" sz="1400" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>, нф</a:t>
+                  <a:t>, нФ</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -3656,7 +3725,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.22708025639835963"/>
           <c:y val="4.920175397237022E-2"/>
-          <c:w val="0.68829622836211268"/>
+          <c:w val="0.73124182723635722"/>
           <c:h val="0.7575175812947047"/>
         </c:manualLayout>
       </c:layout>
@@ -3883,7 +3952,7 @@
                   <a:rPr lang="ru-RU" sz="1400" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>нф</a:t>
+                  <a:t>нФ</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -4205,7 +4274,7 @@
           <c:yMode val="edge"/>
           <c:x val="0.20108557342443117"/>
           <c:y val="4.920175397237022E-2"/>
-          <c:w val="0.7142910750458662"/>
+          <c:w val="0.75998716976730618"/>
           <c:h val="0.7575175812947047"/>
         </c:manualLayout>
       </c:layout>
@@ -4270,16 +4339,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
+                  <c:v>9.9999999999999992E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.0000000000000002E-3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2E-3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4432,7 +4501,7 @@
                   <a:rPr lang="ru-RU" sz="1400" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>, нф</a:t>
+                  <a:t>, нФ</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4834,10 +4903,10 @@
                   <c:v>4.4000000000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.1</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.1999999999999993</c:v>
+                  <c:v>6.2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4979,13 +5048,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5003,6 +5086,18 @@
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>б1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -5023,13 +5118,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5130,9 +5239,9 @@
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -5154,17 +5263,23 @@
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>, </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>мкс</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -5211,9 +5326,9 @@
                       <a:lumOff val="35000"/>
                     </a:sysClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -5260,6 +5375,7 @@
         <c:crossAx val="210070160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="2"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -5410,7 +5526,7 @@
                   <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5461,13 +5577,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -5485,6 +5615,18 @@
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>б1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -5505,13 +5647,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -5614,9 +5770,9 @@
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -5638,17 +5794,23 @@
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>, </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>мкс</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -5695,9 +5857,9 @@
                       <a:lumOff val="35000"/>
                     </a:sysClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -5806,9 +5968,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.22708025639835963"/>
+          <c:x val="0.17530729492310679"/>
           <c:y val="4.920175397237022E-2"/>
-          <c:w val="0.68829622836211268"/>
+          <c:w val="0.73996976893374788"/>
           <c:h val="0.7575175812947047"/>
         </c:manualLayout>
       </c:layout>
@@ -6036,13 +6198,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6060,6 +6236,18 @@
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>б1</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>мкс</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -6080,13 +6268,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -6142,6 +6344,7 @@
         <c:axId val="261117704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -6187,9 +6390,9 @@
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
@@ -6211,17 +6414,23 @@
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>, </a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
+                    <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                    <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   </a:rPr>
                   <a:t>мкс</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
@@ -6268,9 +6477,9 @@
                       <a:lumOff val="35000"/>
                     </a:sysClr>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
+                  <a:cs typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                 </a:defRPr>
               </a:pPr>
               <a:endParaRPr lang="en-US"/>
@@ -6461,7 +6670,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>25</c:v>
@@ -6609,13 +6818,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -6633,6 +6856,18 @@
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>б2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>А</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -6653,13 +6888,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7184,13 +7433,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7208,6 +7471,18 @@
                     <a:effectLst/>
                   </a:rPr>
                   <a:t>б2</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>А</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -7228,13 +7503,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -7290,6 +7579,7 @@
         <c:axId val="261122016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -7378,8 +7668,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1220070997907451E-3"/>
-              <c:y val="0.3844234737833343"/>
+              <c:x val="1.4040356913745855E-2"/>
+              <c:y val="0.35388912263829619"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7568,10 +7858,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$52:$C$56</c:f>
+              <c:f>Лист1!$C$52:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.6764705882352942E-2</c:v>
                 </c:pt>
@@ -7586,18 +7876,21 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.488095238095238E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$D$52:$D$56</c:f>
+              <c:f>Лист1!$D$52:$D$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.9</c:v>
@@ -7610,6 +7903,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>2.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7641,7 +7937,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -7672,6 +7968,9 @@
                 <c:pt idx="4">
                   <c:v>1.488095238095238E-2</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -7697,10 +7996,7 @@
                   <c:v>3.0540318653035912</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>2.5105761585439361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7751,13 +8047,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -7774,7 +8084,19 @@
                   <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>б1</a:t>
+                  <a:t>кн</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>А</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -7795,13 +8117,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8136,10 +8472,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$52:$C$56</c:f>
+              <c:f>Лист1!$C$52:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.6764705882352942E-2</c:v>
                 </c:pt>
@@ -8154,27 +8490,36 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.488095238095238E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$52:$E$55</c:f>
+              <c:f>Лист1!$E$52:$E$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>29</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>26</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8237,6 +8582,9 @@
                 <c:pt idx="4">
                   <c:v>1.488095238095238E-2</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8260,6 +8608,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>25.959103723739688</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>25.635711085568687</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8310,13 +8661,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8333,7 +8698,19 @@
                   <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>б1</a:t>
+                  <a:t>кн</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>, </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>А</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -8354,13 +8731,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -8417,7 +8808,8 @@
         <c:axId val="261123976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="20"/>
+          <c:max val="30"/>
+          <c:min val="22"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -8593,6 +8985,7 @@
         <c:crossAx val="261122800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -8696,10 +9089,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$52:$C$56</c:f>
+              <c:f>Лист1!$C$52:$C$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.6764705882352942E-2</c:v>
                 </c:pt>
@@ -8714,16 +9107,19 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.488095238095238E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2500000000000001E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$F$52:$F$55</c:f>
+              <c:f>Лист1!$F$52:$F$58</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -8735,6 +9131,12 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.5999999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8797,6 +9199,9 @@
                 <c:pt idx="4">
                   <c:v>1.488095238095238E-2</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2500000000000001E-2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -8807,7 +9212,7 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.0210563464969367</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>3.6014488080201907</c:v>
@@ -8820,6 +9225,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>9.785858776738964</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11.852018523215767</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8870,13 +9278,27 @@
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
                   <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
@@ -8893,7 +9315,19 @@
                   <a:rPr lang="ru-RU" sz="1400" baseline="-25000">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>б1</a:t>
+                  <a:t>кн</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="-25000">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>,</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t> А</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -8914,13 +9348,27 @@
             <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
                 <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="Times New Roman" panose="02020603050405020304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
@@ -18893,10 +19341,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R88" sqref="R88"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18918,12 +19366,12 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
       <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
@@ -19186,6 +19634,13 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <f>0.00000001*J5*J4/(J5+J4)</f>
+        <v>5.4545454545454545E-6</v>
+      </c>
       <c r="I13" s="6" t="s">
         <v>12</v>
       </c>
@@ -19194,6 +19649,13 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="5">
+        <f>C13*LN(J14/(J14-0.9*$J$10/$J$11))</f>
+        <v>1.9439425132173314E-6</v>
+      </c>
       <c r="I14" s="14" t="s">
         <v>1</v>
       </c>
@@ -19202,17 +19664,37 @@
       </c>
       <c r="L14" s="7"/>
     </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
+        <f>C13*LN((J12+$J$10/$J$11)/(J12+0.1*$J$10/$J$11))</f>
+        <v>1.190606273924616E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
+        <f>C13*LN((J14*(1-EXP(-$J$13/$J$9))+$J$12)/($J$10/$J$11+$J$12))</f>
+        <v>2.8251900812154572E-6</v>
+      </c>
+    </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
+      <c r="C20" s="25"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
       <c r="G20" s="18" t="s">
         <v>18</v>
       </c>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
@@ -19357,7 +19839,7 @@
         <v>2.3181818181818182E-3</v>
       </c>
       <c r="D26" s="1">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="E26" s="1">
         <v>26</v>
@@ -19384,10 +19866,10 @@
         <v>2.0869505869505868E-3</v>
       </c>
       <c r="D27" s="1">
-        <v>8.1999999999999993</v>
+        <v>6.2</v>
       </c>
       <c r="E27" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F27" s="1">
         <v>0.3</v>
@@ -19406,16 +19888,18 @@
       <c r="G28" s="7"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="24" t="s">
+      <c r="B35" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="25"/>
-      <c r="F35" s="25"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="18" t="s">
         <v>18</v>
       </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
@@ -19536,7 +20020,7 @@
         <v>3.2</v>
       </c>
       <c r="E40" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F40" s="1">
         <v>2.6</v>
@@ -19648,16 +20132,18 @@
       <c r="F48" s="3"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="23"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="23"/>
-      <c r="F50" s="23"/>
+      <c r="C50" s="25"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="25"/>
       <c r="G50" s="18" t="s">
         <v>18</v>
       </c>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
     </row>
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
@@ -19694,10 +20180,10 @@
         <v>3.6764705882352942E-2</v>
       </c>
       <c r="D52" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E52" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -19711,8 +20197,7 @@
         <v>27.046124158151166</v>
       </c>
       <c r="I52" s="15">
-        <f>$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C52/$J$11+$J$12))*1000000</f>
-        <v>-1.0210563464969367</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
@@ -19720,14 +20205,14 @@
         <v>1000</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" ref="C53:C56" si="7">$J$8/B53</f>
+        <f t="shared" ref="C53:C57" si="7">$J$8/B53</f>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D53" s="1">
         <v>3.9</v>
       </c>
       <c r="E53" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F53" s="1">
         <v>2</v>
@@ -19737,11 +20222,11 @@
         <v>5.6822081048434718</v>
       </c>
       <c r="H53" s="15">
-        <f t="shared" ref="H53:H56" si="9">$J$9*LN(($J$12+C53/$J$11)/($J$12+0.1*C53/$J$11))*1000000</f>
+        <f t="shared" ref="H53:H57" si="9">$J$9*LN(($J$12+C53/$J$11)/($J$12+0.1*C53/$J$11))*1000000</f>
         <v>26.684814957935863</v>
       </c>
       <c r="I53" s="15">
-        <f t="shared" ref="I53:I56" si="10">$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C53/$J$11+$J$12))*1000000</f>
+        <f t="shared" ref="I53:I57" si="10">$J$9*LN(($J$14*(1-EXP(-$J$13/$J$9))+$J$12)/(C53/$J$11+$J$12))*1000000</f>
         <v>3.6014488080201907</v>
       </c>
     </row>
@@ -19816,8 +20301,12 @@
       <c r="D56" s="1">
         <v>2.4</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
+      <c r="E56" s="1">
+        <v>25</v>
+      </c>
+      <c r="F56" s="1">
+        <v>4.2</v>
+      </c>
       <c r="G56" s="15">
         <f t="shared" si="8"/>
         <v>3.0540318653035912</v>
@@ -19832,45 +20321,63 @@
       </c>
     </row>
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B57" s="1"/>
-      <c r="C57" s="1"/>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
+      <c r="B57" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="7"/>
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="D57" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="E57" s="1">
+        <v>23</v>
+      </c>
+      <c r="F57" s="1">
+        <v>4.5999999999999996</v>
+      </c>
       <c r="G57" s="15">
         <f>$J$9*LN($J$14/($J$14-0.9*C57/$J$11))*1000000</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
+        <v>2.5105761585439361</v>
+      </c>
+      <c r="H57" s="15">
+        <f t="shared" si="9"/>
+        <v>25.635711085568687</v>
+      </c>
+      <c r="I57" s="15">
+        <f t="shared" si="10"/>
+        <v>11.852018523215767</v>
+      </c>
     </row>
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>24</v>
+      </c>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
-      <c r="G58" s="15">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
+      <c r="G58" s="15"/>
       <c r="H58" s="15"/>
       <c r="I58" s="15"/>
     </row>
     <row r="64" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B64" s="28"/>
+      <c r="B64" s="23"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="27" t="s">
+      <c r="B65" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="25"/>
-      <c r="D65" s="25"/>
-      <c r="E65" s="25"/>
-      <c r="F65" s="25"/>
+      <c r="C65" s="27"/>
+      <c r="D65" s="27"/>
+      <c r="E65" s="27"/>
+      <c r="F65" s="27"/>
       <c r="G65" s="18" t="s">
         <v>18</v>
       </c>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B66" s="1" t="s">
@@ -20019,23 +20526,25 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="29" t="s">
+      <c r="B72" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="29"/>
-      <c r="D72" s="29"/>
-      <c r="E72" s="29"/>
-      <c r="F72" s="29"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
       <c r="G72" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H72" t="s">
-        <v>24</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H72" s="18"/>
+      <c r="I72" s="18"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="31" t="s">
+        <v>27</v>
+      </c>
       <c r="B73" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C73" s="1" t="s">
         <v>19</v>
@@ -20080,8 +20589,8 @@
         <v>0.33</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="15"/>
-        <v>0.01</v>
+        <f>F67*1000000</f>
+        <v>9.9999999999999992E-2</v>
       </c>
       <c r="G74" s="15">
         <f>C74*LN($J$14/($J$14-0.9*$J$10/$J$11))*1000000</f>
@@ -20117,19 +20626,19 @@
         <v>0.27999999999999997</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="18"/>
-        <v>8.0000000000000002E-3</v>
+        <f t="shared" ref="F75:F77" si="19">F68*1000000</f>
+        <v>0.08</v>
       </c>
       <c r="G75" s="15">
-        <f t="shared" ref="G75:G77" si="19">C75*LN($J$14/($J$14-0.9*$J$10/$J$11))*1000000</f>
+        <f t="shared" ref="G75:G77" si="20">C75*LN($J$14/($J$14-0.9*$J$10/$J$11))*1000000</f>
         <v>0.29159137698259974</v>
       </c>
       <c r="H75" s="15">
-        <f t="shared" ref="H75:H77" si="20">C75*LN(($J$12+$J$10/$J$11)/($J$12+0.1*$J$10/$J$11))*1000000</f>
+        <f t="shared" ref="H75:H77" si="21">C75*LN(($J$12+$J$10/$J$11)/($J$12+0.1*$J$10/$J$11))*1000000</f>
         <v>1.785909410886924</v>
       </c>
       <c r="I75" s="15">
-        <f t="shared" ref="I75:I77" si="21">C75*LN(($J$14*(1-EXP(-$J$13/C75))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
+        <f t="shared" ref="I75:I77" si="22">C75*LN(($J$14*(1-EXP(-$J$13/C75))+$J$12)/($J$10/$J$11+$J$12))*1000000</f>
         <v>0.89165278883562127</v>
       </c>
     </row>
@@ -20146,27 +20655,27 @@
         <v>1.6363636363636363E-6</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" ref="D76:F76" si="22">D69*100000</f>
+        <f t="shared" ref="D76:F76" si="23">D69*100000</f>
         <v>0.01</v>
       </c>
       <c r="E76" s="2">
+        <f t="shared" si="23"/>
+        <v>0.22</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="19"/>
+        <v>0.02</v>
+      </c>
+      <c r="G76" s="15">
+        <f t="shared" si="20"/>
+        <v>0.58318275396519947</v>
+      </c>
+      <c r="H76" s="15">
+        <f t="shared" si="21"/>
+        <v>3.571818821773848</v>
+      </c>
+      <c r="I76" s="15">
         <f t="shared" si="22"/>
-        <v>0.22</v>
-      </c>
-      <c r="F76" s="2">
-        <f t="shared" si="22"/>
-        <v>2E-3</v>
-      </c>
-      <c r="G76" s="15">
-        <f t="shared" si="19"/>
-        <v>0.58318275396519947</v>
-      </c>
-      <c r="H76" s="15">
-        <f t="shared" si="20"/>
-        <v>3.571818821773848</v>
-      </c>
-      <c r="I76" s="15">
-        <f t="shared" si="21"/>
         <v>1.7796972650756169</v>
       </c>
     </row>
@@ -20183,27 +20692,27 @@
         <v>2.7818181818181817E-6</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" ref="D77:F77" si="23">D70*100000</f>
+        <f t="shared" ref="D77:F77" si="24">D70*100000</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E77" s="2">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.02</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="23"/>
-        <v>1E-3</v>
+        <f t="shared" si="19"/>
+        <v>0.01</v>
       </c>
       <c r="G77" s="15">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.99141068174083902</v>
       </c>
       <c r="H77" s="15">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6.0720919970155416</v>
       </c>
       <c r="I77" s="15">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.9545296454141821</v>
       </c>
     </row>
@@ -20231,6 +20740,30 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
+    <row r="81" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P81" s="30"/>
+      <c r="Q81" s="3"/>
+      <c r="R81" s="3"/>
+      <c r="S81" s="3"/>
+    </row>
+    <row r="82" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P82" s="30"/>
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P83" s="30"/>
+      <c r="Q83" s="3"/>
+      <c r="R83" s="3"/>
+      <c r="S83" s="3"/>
+    </row>
+    <row r="84" spans="16:19" x14ac:dyDescent="0.25">
+      <c r="P84" s="30"/>
+      <c r="Q84" s="3"/>
+      <c r="R84" s="3"/>
+      <c r="S84" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B72:F72"/>

--- a/lab4/lab4.xlsx
+++ b/lab4/lab4.xlsx
@@ -307,6 +307,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -324,10 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5097,7 +5097,7 @@
                   <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>мкс</a:t>
+                  <a:t>А</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -5626,7 +5626,7 @@
                   <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>мкс</a:t>
+                  <a:t>А</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -6247,7 +6247,7 @@
                   <a:rPr lang="ru-RU" sz="1400" b="0" i="0" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>мкс</a:t>
+                  <a:t>А</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US" sz="1400">
                   <a:effectLst/>
@@ -19343,8 +19343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Z6" sqref="Z6"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M103" sqref="M103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19366,12 +19366,12 @@
       <c r="K1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="18" t="s">
         <v>18</v>
       </c>
@@ -19683,13 +19683,13 @@
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="25" t="s">
+      <c r="B20" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="25"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="25"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="G20" s="18" t="s">
         <v>18</v>
       </c>
@@ -19888,13 +19888,13 @@
       <c r="G28" s="7"/>
     </row>
     <row r="35" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
       <c r="G35" s="18" t="s">
         <v>18</v>
       </c>
@@ -20132,13 +20132,13 @@
       <c r="F48" s="3"/>
     </row>
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B50" s="25" t="s">
+      <c r="B50" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="25"/>
-      <c r="D50" s="25"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="25"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
       <c r="G50" s="18" t="s">
         <v>18</v>
       </c>
@@ -20218,7 +20218,7 @@
         <v>2</v>
       </c>
       <c r="G53" s="15">
-        <f t="shared" ref="G53:G58" si="8">$J$9*LN($J$14/($J$14-0.9*C53/$J$11))*1000000</f>
+        <f t="shared" ref="G53:G56" si="8">$J$9*LN($J$14/($J$14-0.9*C53/$J$11))*1000000</f>
         <v>5.6822081048434718</v>
       </c>
       <c r="H53" s="15">
@@ -20366,13 +20366,13 @@
       <c r="B64" s="23"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B65" s="29" t="s">
+      <c r="B65" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="27"/>
-      <c r="D65" s="27"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="27"/>
+      <c r="C65" s="29"/>
+      <c r="D65" s="29"/>
+      <c r="E65" s="29"/>
+      <c r="F65" s="29"/>
       <c r="G65" s="18" t="s">
         <v>18</v>
       </c>
@@ -20526,13 +20526,13 @@
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B72" s="24" t="s">
+      <c r="B72" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C72" s="24"/>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" s="24"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="26"/>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
       <c r="G72" s="18" t="s">
         <v>25</v>
       </c>
@@ -20540,7 +20540,7 @@
       <c r="I72" s="18"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="31" t="s">
+      <c r="A73" s="25" t="s">
         <v>27</v>
       </c>
       <c r="B73" s="1" t="s">
@@ -20585,7 +20585,7 @@
         <v>0.03</v>
       </c>
       <c r="E74" s="2">
-        <f t="shared" ref="E74:F74" si="15">E67*100000</f>
+        <f t="shared" ref="E74" si="15">E67*100000</f>
         <v>0.33</v>
       </c>
       <c r="F74" s="2">
@@ -20618,7 +20618,7 @@
         <v>8.1818181818181813E-7</v>
       </c>
       <c r="D75" s="2">
-        <f t="shared" ref="D75:F75" si="18">D68*100000</f>
+        <f t="shared" ref="D75:E75" si="18">D68*100000</f>
         <v>2.4999999999999998E-2</v>
       </c>
       <c r="E75" s="2">
@@ -20655,7 +20655,7 @@
         <v>1.6363636363636363E-6</v>
       </c>
       <c r="D76" s="2">
-        <f t="shared" ref="D76:F76" si="23">D69*100000</f>
+        <f t="shared" ref="D76:E76" si="23">D69*100000</f>
         <v>0.01</v>
       </c>
       <c r="E76" s="2">
@@ -20692,7 +20692,7 @@
         <v>2.7818181818181817E-6</v>
       </c>
       <c r="D77" s="2">
-        <f t="shared" ref="D77:F77" si="24">D70*100000</f>
+        <f t="shared" ref="D77:E77" si="24">D70*100000</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E77" s="2">
@@ -20741,25 +20741,25 @@
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P81" s="30"/>
+      <c r="P81" s="24"/>
       <c r="Q81" s="3"/>
       <c r="R81" s="3"/>
       <c r="S81" s="3"/>
     </row>
     <row r="82" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P82" s="30"/>
+      <c r="P82" s="24"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
     </row>
     <row r="83" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P83" s="30"/>
+      <c r="P83" s="24"/>
       <c r="Q83" s="3"/>
       <c r="R83" s="3"/>
       <c r="S83" s="3"/>
     </row>
     <row r="84" spans="16:19" x14ac:dyDescent="0.25">
-      <c r="P84" s="30"/>
+      <c r="P84" s="24"/>
       <c r="Q84" s="3"/>
       <c r="R84" s="3"/>
       <c r="S84" s="3"/>
